--- a/data_sum/operant_sample1_modeling.xlsx
+++ b/data_sum/operant_sample1_modeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawieland/Documents/Promotion/SALAD/data_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259BA1A-5C33-524F-88AB-8DDC6827E5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E391A5-89F2-3F4D-A4D5-AF8526A859C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="1640" windowWidth="24340" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="660" windowWidth="24340" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1153">
   <si>
     <t>sub_id</t>
   </si>
@@ -3461,16 +3461,40 @@
   </si>
   <si>
     <t>BIS_total</t>
+  </si>
+  <si>
+    <t>log_lik</t>
+  </si>
+  <si>
+    <t>al_win</t>
+  </si>
+  <si>
+    <t>kappa</t>
+  </si>
+  <si>
+    <t>al_loss</t>
+  </si>
+  <si>
+    <t>beta_win</t>
+  </si>
+  <si>
+    <t>beta_loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3516,9 +3540,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:BP29" totalsRowShown="0">
-  <autoFilter ref="A1:BP29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:BV29" totalsRowShown="0">
+  <autoFilter ref="A1:BV29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="74">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sub_id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="group"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="order"/>
@@ -3587,6 +3611,12 @@
     <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="p_l_sw_pre_T2"/>
     <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="p_l_sw_rev_T2"/>
     <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="p_l_sw_post_T2"/>
+    <tableColumn id="69" xr3:uid="{C9E64459-163E-9A4A-9165-7E8C66BCCE69}" name="log_lik"/>
+    <tableColumn id="70" xr3:uid="{BAE2B17A-025A-8D49-9760-390887D490A7}" name="al_win"/>
+    <tableColumn id="71" xr3:uid="{5621703F-F3CE-FF41-9D43-A6AE312C432B}" name="al_loss"/>
+    <tableColumn id="72" xr3:uid="{0B293E2D-F95A-5141-87D7-395B202440AB}" name="kappa"/>
+    <tableColumn id="73" xr3:uid="{79E7B7CC-4CBC-4C48-9548-EBE9CF1427DB}" name="beta_win"/>
+    <tableColumn id="74" xr3:uid="{256345A5-776B-0342-A9BF-B089C9C050C1}" name="beta_loss"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3871,15 +3901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP29"/>
+  <dimension ref="A1:BV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BO11" sqref="BO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4084,8 +4114,26 @@
       <c r="BP1" t="s">
         <v>66</v>
       </c>
+      <c r="BQ1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1152</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -4290,8 +4338,26 @@
       <c r="BP2" t="s">
         <v>119</v>
       </c>
+      <c r="BQ2">
+        <v>-195.24523001490601</v>
+      </c>
+      <c r="BR2">
+        <v>0.27650000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="BT2">
+        <v>-0.59751766350473201</v>
+      </c>
+      <c r="BU2">
+        <v>0.70918673554329703</v>
+      </c>
+      <c r="BV2">
+        <v>-0.42291431385054601</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -4496,8 +4562,26 @@
       <c r="BP3" t="s">
         <v>101</v>
       </c>
+      <c r="BQ3">
+        <v>-165.26080230379301</v>
+      </c>
+      <c r="BR3">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="BS3">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="BT3">
+        <v>-0.33299572561956597</v>
+      </c>
+      <c r="BU3">
+        <v>1.02957655196939</v>
+      </c>
+      <c r="BV3">
+        <v>0.46879038000710099</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4702,8 +4786,26 @@
       <c r="BP4" t="s">
         <v>213</v>
       </c>
+      <c r="BQ4">
+        <v>-101.47496579892901</v>
+      </c>
+      <c r="BR4">
+        <v>0.23</v>
+      </c>
+      <c r="BS4">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="BT4">
+        <v>-1.76299798096754</v>
+      </c>
+      <c r="BU4">
+        <v>1.70106939969715</v>
+      </c>
+      <c r="BV4">
+        <v>1.3525657350028</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4908,8 +5010,26 @@
       <c r="BP5" t="s">
         <v>213</v>
       </c>
+      <c r="BQ5">
+        <v>-65.755395678022396</v>
+      </c>
+      <c r="BR5">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="BS5">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>-0.99090813395190702</v>
+      </c>
+      <c r="BU5">
+        <v>2.01221574468331</v>
+      </c>
+      <c r="BV5">
+        <v>1.4327477919953999</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -5114,8 +5234,26 @@
       <c r="BP6" t="s">
         <v>305</v>
       </c>
+      <c r="BQ6">
+        <v>-193.48568947408901</v>
+      </c>
+      <c r="BR6">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="BS6">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="BT6">
+        <v>-0.29302557277204</v>
+      </c>
+      <c r="BU6">
+        <v>0.645611501496689</v>
+      </c>
+      <c r="BV6">
+        <v>0.45243428769427402</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -5320,8 +5458,26 @@
       <c r="BP7" t="s">
         <v>312</v>
       </c>
+      <c r="BQ7">
+        <v>-113.570517310347</v>
+      </c>
+      <c r="BR7">
+        <v>0.2039</v>
+      </c>
+      <c r="BS7">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="BT7">
+        <v>-0.95623048809300604</v>
+      </c>
+      <c r="BU7">
+        <v>1.6559707678286</v>
+      </c>
+      <c r="BV7">
+        <v>1.6041850537107101</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -5523,8 +5679,26 @@
       <c r="BP8" t="s">
         <v>213</v>
       </c>
+      <c r="BQ8">
+        <v>-81.0274810010431</v>
+      </c>
+      <c r="BR8">
+        <v>0.29530000000000001</v>
+      </c>
+      <c r="BS8">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="BT8">
+        <v>-1.22511215610414</v>
+      </c>
+      <c r="BU8">
+        <v>1.8751071144323701</v>
+      </c>
+      <c r="BV8">
+        <v>1.3270453347473901</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -5729,8 +5903,26 @@
       <c r="BP9" t="s">
         <v>437</v>
       </c>
+      <c r="BQ9">
+        <v>-153.28737607999301</v>
+      </c>
+      <c r="BR9">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="BS9">
+        <v>0.87639999999999996</v>
+      </c>
+      <c r="BT9">
+        <v>0.155182060518574</v>
+      </c>
+      <c r="BU9">
+        <v>1.0768682501890099</v>
+      </c>
+      <c r="BV9">
+        <v>5.0772242594244003E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -5935,8 +6127,26 @@
       <c r="BP10" t="s">
         <v>213</v>
       </c>
+      <c r="BQ10">
+        <v>-36.2772334443777</v>
+      </c>
+      <c r="BR10">
+        <v>0.1147</v>
+      </c>
+      <c r="BS10">
+        <v>0.6784</v>
+      </c>
+      <c r="BT10">
+        <v>-3.4697156398402198</v>
+      </c>
+      <c r="BU10">
+        <v>2.7614574858654</v>
+      </c>
+      <c r="BV10">
+        <v>2.3663676394868398</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>462</v>
       </c>
@@ -6138,8 +6348,26 @@
       <c r="BP11" t="s">
         <v>334</v>
       </c>
+      <c r="BQ11">
+        <v>-176.20970671031299</v>
+      </c>
+      <c r="BR11">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.79469999999999996</v>
+      </c>
+      <c r="BT11">
+        <v>-2.2695774014510102</v>
+      </c>
+      <c r="BU11">
+        <v>0.91615615799420203</v>
+      </c>
+      <c r="BV11">
+        <v>0.72365446505258002</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>503</v>
       </c>
@@ -6344,8 +6572,26 @@
       <c r="BP12" t="s">
         <v>547</v>
       </c>
+      <c r="BQ12">
+        <v>-129.59821727707401</v>
+      </c>
+      <c r="BR12">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="BS12">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="BT12">
+        <v>-0.31101176545220599</v>
+      </c>
+      <c r="BU12">
+        <v>1.1192423119757899</v>
+      </c>
+      <c r="BV12">
+        <v>1.03779990004914</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>548</v>
       </c>
@@ -6550,8 +6796,26 @@
       <c r="BP13" t="s">
         <v>213</v>
       </c>
+      <c r="BQ13">
+        <v>-60.571385672718101</v>
+      </c>
+      <c r="BR13">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="BS13">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="BT13">
+        <v>-1.32791011237045</v>
+      </c>
+      <c r="BU13">
+        <v>2.0580095457991399</v>
+      </c>
+      <c r="BV13">
+        <v>1.43560488757254</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>587</v>
       </c>
@@ -6756,8 +7020,26 @@
       <c r="BP14" t="s">
         <v>213</v>
       </c>
+      <c r="BQ14">
+        <v>-94.976580414405802</v>
+      </c>
+      <c r="BR14">
+        <v>0.42920000000000003</v>
+      </c>
+      <c r="BS14">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="BT14">
+        <v>-0.43466934283172798</v>
+      </c>
+      <c r="BU14">
+        <v>1.5280735742400799</v>
+      </c>
+      <c r="BV14">
+        <v>0.80703860568608998</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>623</v>
       </c>
@@ -6962,8 +7244,26 @@
       <c r="BP15" t="s">
         <v>661</v>
       </c>
+      <c r="BQ15">
+        <v>-105.125024479212</v>
+      </c>
+      <c r="BR15">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="BS15">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="BT15">
+        <v>-0.73835003836202995</v>
+      </c>
+      <c r="BU15">
+        <v>1.6033147288251199</v>
+      </c>
+      <c r="BV15">
+        <v>8.2613650931698895E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>662</v>
       </c>
@@ -7168,8 +7468,26 @@
       <c r="BP16" t="s">
         <v>213</v>
       </c>
+      <c r="BQ16">
+        <v>-57.811669798091401</v>
+      </c>
+      <c r="BR16">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="BS16">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="BT16">
+        <v>-1.47391208041934</v>
+      </c>
+      <c r="BU16">
+        <v>2.09398730181656</v>
+      </c>
+      <c r="BV16">
+        <v>1.75676989537803</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>693</v>
       </c>
@@ -7374,8 +7692,26 @@
       <c r="BP17" t="s">
         <v>245</v>
       </c>
+      <c r="BQ17">
+        <v>-115.194053235957</v>
+      </c>
+      <c r="BR17">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="BS17">
+        <v>0.82210000000000005</v>
+      </c>
+      <c r="BT17">
+        <v>-1.0707873426015899</v>
+      </c>
+      <c r="BU17">
+        <v>1.5906079169978899</v>
+      </c>
+      <c r="BV17">
+        <v>0.69118923646263297</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>728</v>
       </c>
@@ -7577,8 +7913,26 @@
       <c r="BP18" t="s">
         <v>126</v>
       </c>
+      <c r="BQ18">
+        <v>-100.150514235363</v>
+      </c>
+      <c r="BR18">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="BS18">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="BT18">
+        <v>0.369544565129868</v>
+      </c>
+      <c r="BU18">
+        <v>1.5011309256635199</v>
+      </c>
+      <c r="BV18">
+        <v>0.99966629456970302</v>
+      </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -7780,8 +8134,26 @@
       <c r="BP19" t="s">
         <v>101</v>
       </c>
+      <c r="BQ19">
+        <v>-176.71758865828599</v>
+      </c>
+      <c r="BR19">
+        <v>0.1067</v>
+      </c>
+      <c r="BS19">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="BT19">
+        <v>-1.2759578059546901</v>
+      </c>
+      <c r="BU19">
+        <v>1.4511630742980901</v>
+      </c>
+      <c r="BV19">
+        <v>-5.4760836326000199E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>800</v>
       </c>
@@ -7986,8 +8358,26 @@
       <c r="BP20" t="s">
         <v>836</v>
       </c>
+      <c r="BQ20">
+        <v>-101.67088325247801</v>
+      </c>
+      <c r="BR20">
+        <v>0.317</v>
+      </c>
+      <c r="BS20">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="BT20">
+        <v>-0.54412988590080202</v>
+      </c>
+      <c r="BU20">
+        <v>1.7790091285483101</v>
+      </c>
+      <c r="BV20">
+        <v>1.12841757442276</v>
+      </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>837</v>
       </c>
@@ -8192,8 +8582,26 @@
       <c r="BP21" t="s">
         <v>99</v>
       </c>
+      <c r="BQ21">
+        <v>-134.796221624216</v>
+      </c>
+      <c r="BR21">
+        <v>0.36940000000000001</v>
+      </c>
+      <c r="BS21">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="BT21">
+        <v>-1.1831840361529</v>
+      </c>
+      <c r="BU21">
+        <v>1.3234407918386299</v>
+      </c>
+      <c r="BV21">
+        <v>0.482531567602069</v>
+      </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>875</v>
       </c>
@@ -8398,8 +8806,26 @@
       <c r="BP22" t="s">
         <v>196</v>
       </c>
+      <c r="BQ22">
+        <v>-98.593096553727406</v>
+      </c>
+      <c r="BR22">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="BS22">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="BT22">
+        <v>-1.2795619426334099</v>
+      </c>
+      <c r="BU22">
+        <v>1.8796881403993599</v>
+      </c>
+      <c r="BV22">
+        <v>0.82152876434571698</v>
+      </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>911</v>
       </c>
@@ -8604,8 +9030,26 @@
       <c r="BP23" t="s">
         <v>213</v>
       </c>
+      <c r="BQ23">
+        <v>-117.579142180875</v>
+      </c>
+      <c r="BR23">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="BS23">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="BT23">
+        <v>-0.71704458688894102</v>
+      </c>
+      <c r="BU23">
+        <v>1.4631170900794599</v>
+      </c>
+      <c r="BV23">
+        <v>1.08708767510257</v>
+      </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>946</v>
       </c>
@@ -8810,8 +9254,26 @@
       <c r="BP24" t="s">
         <v>330</v>
       </c>
+      <c r="BQ24">
+        <v>-162.18186632209</v>
+      </c>
+      <c r="BR24">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="BS24">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="BT24">
+        <v>-2.0520179673243502</v>
+      </c>
+      <c r="BU24">
+        <v>1.5873608032834201</v>
+      </c>
+      <c r="BV24">
+        <v>0.96186727280885898</v>
+      </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>982</v>
       </c>
@@ -9016,8 +9478,26 @@
       <c r="BP25" t="s">
         <v>95</v>
       </c>
+      <c r="BQ25">
+        <v>-58.184112111257299</v>
+      </c>
+      <c r="BR25">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="BS25">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="BT25">
+        <v>-1.0714361175579501</v>
+      </c>
+      <c r="BU25">
+        <v>1.8317257290739599</v>
+      </c>
+      <c r="BV25">
+        <v>1.8052383920493</v>
+      </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1011</v>
       </c>
@@ -9222,8 +9702,26 @@
       <c r="BP26" t="s">
         <v>713</v>
       </c>
+      <c r="BQ26">
+        <v>-75.349284475398306</v>
+      </c>
+      <c r="BR26">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="BS26">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="BT26">
+        <v>-1.5480920879250499</v>
+      </c>
+      <c r="BU26">
+        <v>1.71137806116449</v>
+      </c>
+      <c r="BV26">
+        <v>2.2558751583223802</v>
+      </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1051</v>
       </c>
@@ -9428,8 +9926,26 @@
       <c r="BP27" t="s">
         <v>843</v>
       </c>
+      <c r="BQ27">
+        <v>-114.67111241329999</v>
+      </c>
+      <c r="BR27">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="BS27">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="BT27">
+        <v>-0.81103065015539</v>
+      </c>
+      <c r="BU27">
+        <v>1.70783692537763</v>
+      </c>
+      <c r="BV27">
+        <v>-0.125085432174869</v>
+      </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1085</v>
       </c>
@@ -9634,8 +10150,26 @@
       <c r="BP28" t="s">
         <v>126</v>
       </c>
+      <c r="BQ28">
+        <v>-49.3868939940239</v>
+      </c>
+      <c r="BR28">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="BS28">
+        <v>0.72709999999999997</v>
+      </c>
+      <c r="BT28">
+        <v>-2.0177914044123502</v>
+      </c>
+      <c r="BU28">
+        <v>2.4039996018230299</v>
+      </c>
+      <c r="BV28">
+        <v>1.8365387948684899</v>
+      </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1110</v>
       </c>
@@ -9840,8 +10374,27 @@
       <c r="BP29" t="s">
         <v>647</v>
       </c>
+      <c r="BQ29">
+        <v>-82.294699015430794</v>
+      </c>
+      <c r="BR29">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="BS29">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="BT29">
+        <v>-0.36222088391919599</v>
+      </c>
+      <c r="BU29">
+        <v>1.96481284620143</v>
+      </c>
+      <c r="BV29">
+        <v>1.6009380656563701</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/data_sum/operant_sample1_modeling.xlsx
+++ b/data_sum/operant_sample1_modeling.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawieland/Documents/Promotion/SALAD/data_sum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawieland/Documents/Promotion/SALAD_3/data_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E391A5-89F2-3F4D-A4D5-AF8526A859C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F32B0-CFCA-1049-B381-72E86897F3F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="660" windowWidth="24340" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3463,22 +3463,22 @@
     <t>BIS_total</t>
   </si>
   <si>
-    <t>log_lik</t>
-  </si>
-  <si>
     <t>al_win</t>
   </si>
   <si>
-    <t>kappa</t>
-  </si>
-  <si>
     <t>al_loss</t>
   </si>
   <si>
-    <t>beta_win</t>
-  </si>
-  <si>
-    <t>beta_loss</t>
+    <t>bet_win</t>
+  </si>
+  <si>
+    <t>bet_loss</t>
+  </si>
+  <si>
+    <t>sc_bet_win</t>
+  </si>
+  <si>
+    <t>sc_bet_loss</t>
   </si>
 </sst>
 </file>
@@ -3611,12 +3611,12 @@
     <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="p_l_sw_pre_T2"/>
     <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="p_l_sw_rev_T2"/>
     <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="p_l_sw_post_T2"/>
-    <tableColumn id="69" xr3:uid="{C9E64459-163E-9A4A-9165-7E8C66BCCE69}" name="log_lik"/>
-    <tableColumn id="70" xr3:uid="{BAE2B17A-025A-8D49-9760-390887D490A7}" name="al_win"/>
-    <tableColumn id="71" xr3:uid="{5621703F-F3CE-FF41-9D43-A6AE312C432B}" name="al_loss"/>
-    <tableColumn id="72" xr3:uid="{0B293E2D-F95A-5141-87D7-395B202440AB}" name="kappa"/>
-    <tableColumn id="73" xr3:uid="{79E7B7CC-4CBC-4C48-9548-EBE9CF1427DB}" name="beta_win"/>
-    <tableColumn id="74" xr3:uid="{256345A5-776B-0342-A9BF-B089C9C050C1}" name="beta_loss"/>
+    <tableColumn id="69" xr3:uid="{C9E64459-163E-9A4A-9165-7E8C66BCCE69}" name="al_win"/>
+    <tableColumn id="70" xr3:uid="{BAE2B17A-025A-8D49-9760-390887D490A7}" name="al_loss"/>
+    <tableColumn id="71" xr3:uid="{5621703F-F3CE-FF41-9D43-A6AE312C432B}" name="bet_win"/>
+    <tableColumn id="72" xr3:uid="{0B293E2D-F95A-5141-87D7-395B202440AB}" name="bet_loss"/>
+    <tableColumn id="73" xr3:uid="{79E7B7CC-4CBC-4C48-9548-EBE9CF1427DB}" name="sc_bet_win"/>
+    <tableColumn id="74" xr3:uid="{256345A5-776B-0342-A9BF-B089C9C050C1}" name="sc_bet_loss"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3904,7 +3904,7 @@
   <dimension ref="A1:BV29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BO11" sqref="BO11"/>
+      <selection activeCell="CA10" sqref="CA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4121,10 +4121,10 @@
         <v>1148</v>
       </c>
       <c r="BS1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BT1" t="s">
         <v>1150</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>1149</v>
       </c>
       <c r="BU1" t="s">
         <v>1151</v>
@@ -4339,22 +4339,22 @@
         <v>119</v>
       </c>
       <c r="BQ2">
-        <v>-195.24523001490601</v>
+        <v>3.3749659017537598E-2</v>
       </c>
       <c r="BR2">
-        <v>0.27650000000000002</v>
+        <v>0.34601990922606202</v>
       </c>
       <c r="BS2">
-        <v>0.74339999999999995</v>
+        <v>1.74152919562174</v>
       </c>
       <c r="BT2">
-        <v>-0.59751766350473201</v>
+        <v>0.47967486629865602</v>
       </c>
       <c r="BU2">
-        <v>0.70918673554329703</v>
+        <v>-0.48246735807442798</v>
       </c>
       <c r="BV2">
-        <v>-0.42291431385054601</v>
+        <v>-0.346096577956584</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.2">
@@ -4563,22 +4563,22 @@
         <v>101</v>
       </c>
       <c r="BQ3">
-        <v>-165.26080230379301</v>
+        <v>0.22711067812746599</v>
       </c>
       <c r="BR3">
-        <v>0.32290000000000002</v>
+        <v>0.57114357630567403</v>
       </c>
       <c r="BS3">
-        <v>0.88219999999999998</v>
+        <v>1.10546618297845</v>
       </c>
       <c r="BT3">
-        <v>-0.33299572561956597</v>
+        <v>0.54185088284372296</v>
       </c>
       <c r="BU3">
-        <v>1.02957655196939</v>
+        <v>-0.149792832644881</v>
       </c>
       <c r="BV3">
-        <v>0.46879038000710099</v>
+        <v>0.28552077400074899</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.2">
@@ -4787,22 +4787,22 @@
         <v>213</v>
       </c>
       <c r="BQ4">
-        <v>-101.47496579892901</v>
+        <v>0.168468865392258</v>
       </c>
       <c r="BR4">
-        <v>0.23</v>
+        <v>0.29856914159399001</v>
       </c>
       <c r="BS4">
-        <v>0.92769999999999997</v>
+        <v>1.46099372204197</v>
       </c>
       <c r="BT4">
-        <v>-1.76299798096754</v>
+        <v>1.0337159556990101</v>
       </c>
       <c r="BU4">
-        <v>1.70106939969715</v>
+        <v>0.13155603791655601</v>
       </c>
       <c r="BV4">
-        <v>1.3525657350028</v>
+        <v>-4.6111333073499003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.2">
@@ -5011,22 +5011,22 @@
         <v>213</v>
       </c>
       <c r="BQ5">
-        <v>-65.755395678022396</v>
+        <v>0.143532833929191</v>
       </c>
       <c r="BR5">
-        <v>0.21859999999999999</v>
+        <v>0.30642130850684601</v>
       </c>
       <c r="BS5">
-        <v>0.61099999999999999</v>
+        <v>1.9133346438900201</v>
       </c>
       <c r="BT5">
-        <v>-0.99090813395190702</v>
+        <v>1.31073622608664</v>
       </c>
       <c r="BU5">
-        <v>2.01221574468331</v>
+        <v>0.141362091414032</v>
       </c>
       <c r="BV5">
-        <v>1.4327477919953999</v>
+        <v>0.50482723298507604</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.2">
@@ -5235,22 +5235,22 @@
         <v>305</v>
       </c>
       <c r="BQ6">
-        <v>-193.48568947408901</v>
+        <v>9.0379433712604498E-2</v>
       </c>
       <c r="BR6">
-        <v>0.24859999999999999</v>
+        <v>0.70276377885577701</v>
       </c>
       <c r="BS6">
-        <v>0.92749999999999999</v>
+        <v>0.91939584489317205</v>
       </c>
       <c r="BT6">
-        <v>-0.29302557277204</v>
+        <v>1.02683493665536</v>
       </c>
       <c r="BU6">
-        <v>0.645611501496689</v>
+        <v>0.25227592851584801</v>
       </c>
       <c r="BV6">
-        <v>0.45243428769427402</v>
+        <v>-0.28584661775709702</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.2">
@@ -5459,22 +5459,22 @@
         <v>312</v>
       </c>
       <c r="BQ7">
-        <v>-113.570517310347</v>
+        <v>0.108149850154973</v>
       </c>
       <c r="BR7">
-        <v>0.2039</v>
+        <v>0.28373926618510298</v>
       </c>
       <c r="BS7">
-        <v>0.49730000000000002</v>
+        <v>1.84186107435012</v>
       </c>
       <c r="BT7">
-        <v>-0.95623048809300604</v>
+        <v>1.6404560698132</v>
       </c>
       <c r="BU7">
-        <v>1.6559707678286</v>
+        <v>-0.15455867893363101</v>
       </c>
       <c r="BV7">
-        <v>1.6041850537107101</v>
+        <v>0.23331283688676599</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.2">
@@ -5680,22 +5680,22 @@
         <v>213</v>
       </c>
       <c r="BQ8">
-        <v>-81.0274810010431</v>
+        <v>0.156593073875155</v>
       </c>
       <c r="BR8">
-        <v>0.29530000000000001</v>
+        <v>0.39302413997605301</v>
       </c>
       <c r="BS8">
-        <v>0.76160000000000005</v>
+        <v>1.9452254807627001</v>
       </c>
       <c r="BT8">
-        <v>-1.22511215610414</v>
+        <v>1.62732142365252</v>
       </c>
       <c r="BU8">
-        <v>1.8751071144323701</v>
+        <v>0.31154256063091901</v>
       </c>
       <c r="BV8">
-        <v>1.3270453347473901</v>
+        <v>-0.40179045698015903</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.2">
@@ -5904,22 +5904,22 @@
         <v>437</v>
       </c>
       <c r="BQ9">
-        <v>-153.28737607999301</v>
+        <v>0.29651199330697797</v>
       </c>
       <c r="BR9">
-        <v>0.37509999999999999</v>
+        <v>0.64135026446160803</v>
       </c>
       <c r="BS9">
-        <v>0.87639999999999996</v>
+        <v>0.82787544850094497</v>
       </c>
       <c r="BT9">
-        <v>0.155182060518574</v>
+        <v>0.13453166119818599</v>
       </c>
       <c r="BU9">
-        <v>1.0768682501890099</v>
+        <v>0.72999667581427197</v>
       </c>
       <c r="BV9">
-        <v>5.0772242594244003E-2</v>
+        <v>1.40144688210716</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.2">
@@ -6128,22 +6128,22 @@
         <v>213</v>
       </c>
       <c r="BQ10">
-        <v>-36.2772334443777</v>
+        <v>0.107565932900949</v>
       </c>
       <c r="BR10">
-        <v>0.1147</v>
+        <v>0.13500411064186699</v>
       </c>
       <c r="BS10">
-        <v>0.6784</v>
+        <v>2.94487344515893</v>
       </c>
       <c r="BT10">
-        <v>-3.4697156398402198</v>
+        <v>1.6123714771535</v>
       </c>
       <c r="BU10">
-        <v>2.7614574858654</v>
+        <v>0.17348764213457499</v>
       </c>
       <c r="BV10">
-        <v>2.3663676394868398</v>
+        <v>1.2580357289008799</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.2">
@@ -6349,22 +6349,22 @@
         <v>334</v>
       </c>
       <c r="BQ11">
-        <v>-176.20970671031299</v>
+        <v>0.197304510781806</v>
       </c>
       <c r="BR11">
-        <v>0.30130000000000001</v>
+        <v>0.28584479782841699</v>
       </c>
       <c r="BS11">
-        <v>0.79469999999999996</v>
+        <v>0.58288409722016599</v>
       </c>
       <c r="BT11">
-        <v>-2.2695774014510102</v>
+        <v>0.52607110064336404</v>
       </c>
       <c r="BU11">
-        <v>0.91615615799420203</v>
+        <v>0.70853159514417996</v>
       </c>
       <c r="BV11">
-        <v>0.72365446505258002</v>
+        <v>0.49921830533690498</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.2">
@@ -6573,22 +6573,22 @@
         <v>547</v>
       </c>
       <c r="BQ12">
-        <v>-129.59821727707401</v>
+        <v>0.443162596624875</v>
       </c>
       <c r="BR12">
-        <v>0.47770000000000001</v>
+        <v>0.51995011929615098</v>
       </c>
       <c r="BS12">
-        <v>0.90669999999999995</v>
+        <v>1.13982551054293</v>
       </c>
       <c r="BT12">
-        <v>-0.31101176545220599</v>
+        <v>0.99202346820181997</v>
       </c>
       <c r="BU12">
-        <v>1.1192423119757899</v>
+        <v>-0.15846268473448699</v>
       </c>
       <c r="BV12">
-        <v>1.03779990004914</v>
+        <v>0.16787458272271299</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.2">
@@ -6797,22 +6797,22 @@
         <v>213</v>
       </c>
       <c r="BQ13">
-        <v>-60.571385672718101</v>
+        <v>0.215528105305304</v>
       </c>
       <c r="BR13">
-        <v>0.31480000000000002</v>
+        <v>0.30652054875453399</v>
       </c>
       <c r="BS13">
-        <v>0.61270000000000002</v>
+        <v>2.1839780414740102</v>
       </c>
       <c r="BT13">
-        <v>-1.32791011237045</v>
+        <v>1.94047625893135</v>
       </c>
       <c r="BU13">
-        <v>2.0580095457991399</v>
+        <v>-6.0761536405578402E-2</v>
       </c>
       <c r="BV13">
-        <v>1.43560488757254</v>
+        <v>-0.81953891198047701</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.2">
@@ -7021,22 +7021,22 @@
         <v>213</v>
       </c>
       <c r="BQ14">
-        <v>-94.976580414405802</v>
+        <v>0.45457115321685698</v>
       </c>
       <c r="BR14">
-        <v>0.42920000000000003</v>
+        <v>0.50571942681840698</v>
       </c>
       <c r="BS14">
-        <v>0.92079999999999995</v>
+        <v>1.35335469809391</v>
       </c>
       <c r="BT14">
-        <v>-0.43466934283172798</v>
+        <v>0.75650556699043503</v>
       </c>
       <c r="BU14">
-        <v>1.5280735742400799</v>
+        <v>0.17011508376602</v>
       </c>
       <c r="BV14">
-        <v>0.80703860568608998</v>
+        <v>0.37579360453347299</v>
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.2">
@@ -7245,22 +7245,22 @@
         <v>661</v>
       </c>
       <c r="BQ15">
-        <v>-105.125024479212</v>
+        <v>0.373434423478611</v>
       </c>
       <c r="BR15">
-        <v>0.41760000000000003</v>
+        <v>0.460098826390475</v>
       </c>
       <c r="BS15">
-        <v>0.82040000000000002</v>
+        <v>1.5306011420310599</v>
       </c>
       <c r="BT15">
-        <v>-0.73835003836202995</v>
+        <v>0.56547843668977704</v>
       </c>
       <c r="BU15">
-        <v>1.6033147288251199</v>
+        <v>7.8578762001784805E-2</v>
       </c>
       <c r="BV15">
-        <v>8.2613650931698895E-2</v>
+        <v>-0.84655485837810596</v>
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.2">
@@ -7469,22 +7469,22 @@
         <v>213</v>
       </c>
       <c r="BQ16">
-        <v>-57.811669798091401</v>
+        <v>0.19604022275664701</v>
       </c>
       <c r="BR16">
-        <v>0.30570000000000003</v>
+        <v>0.35035087748668298</v>
       </c>
       <c r="BS16">
-        <v>0.76500000000000001</v>
+        <v>2.3922539209142499</v>
       </c>
       <c r="BT16">
-        <v>-1.47391208041934</v>
+        <v>1.88571675302126</v>
       </c>
       <c r="BU16">
-        <v>2.09398730181656</v>
+        <v>-0.27389114201592901</v>
       </c>
       <c r="BV16">
-        <v>1.75676989537803</v>
+        <v>-0.35290988002387302</v>
       </c>
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.2">
@@ -7693,22 +7693,22 @@
         <v>245</v>
       </c>
       <c r="BQ17">
-        <v>-115.194053235957</v>
+        <v>0.10209777107449899</v>
       </c>
       <c r="BR17">
-        <v>0.26200000000000001</v>
+        <v>0.38112066674259498</v>
       </c>
       <c r="BS17">
-        <v>0.82210000000000005</v>
+        <v>1.68348988229774</v>
       </c>
       <c r="BT17">
-        <v>-1.0707873426015899</v>
+        <v>0.93049963251203904</v>
       </c>
       <c r="BU17">
-        <v>1.5906079169978899</v>
+        <v>0.23762322213363499</v>
       </c>
       <c r="BV17">
-        <v>0.69118923646263297</v>
+        <v>4.98494571118904E-2</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.2">
@@ -7914,22 +7914,22 @@
         <v>126</v>
       </c>
       <c r="BQ18">
-        <v>-100.150514235363</v>
+        <v>0.188924251774887</v>
       </c>
       <c r="BR18">
-        <v>0.31340000000000001</v>
+        <v>0.66270029189331303</v>
       </c>
       <c r="BS18">
-        <v>0.89759999999999995</v>
+        <v>1.6210445900649</v>
       </c>
       <c r="BT18">
-        <v>0.369544565129868</v>
+        <v>1.2784920597824001</v>
       </c>
       <c r="BU18">
-        <v>1.5011309256635199</v>
+        <v>0.14197864775852201</v>
       </c>
       <c r="BV18">
-        <v>0.99966629456970302</v>
+        <v>-0.13141936209968499</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.2">
@@ -8135,22 +8135,22 @@
         <v>101</v>
       </c>
       <c r="BQ19">
-        <v>-176.71758865828599</v>
+        <v>1.47408103222445E-2</v>
       </c>
       <c r="BR19">
-        <v>0.1067</v>
+        <v>0.100391849746247</v>
       </c>
       <c r="BS19">
-        <v>0.72709999999999997</v>
+        <v>2.1119107178987999</v>
       </c>
       <c r="BT19">
-        <v>-1.2759578059546901</v>
+        <v>0.87684533040774404</v>
       </c>
       <c r="BU19">
-        <v>1.4511630742980901</v>
+        <v>-0.13404313871812601</v>
       </c>
       <c r="BV19">
-        <v>-5.4760836326000199E-2</v>
+        <v>-0.38127798850820399</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.2">
@@ -8359,22 +8359,22 @@
         <v>836</v>
       </c>
       <c r="BQ20">
-        <v>-101.67088325247801</v>
+        <v>0.241294417481065</v>
       </c>
       <c r="BR20">
-        <v>0.317</v>
+        <v>0.43362811489248598</v>
       </c>
       <c r="BS20">
-        <v>0.81130000000000002</v>
+        <v>2.12083714768929</v>
       </c>
       <c r="BT20">
-        <v>-0.54412988590080202</v>
+        <v>1.2602974438961401</v>
       </c>
       <c r="BU20">
-        <v>1.7790091285483101</v>
+        <v>-0.480528276238676</v>
       </c>
       <c r="BV20">
-        <v>1.12841757442276</v>
+        <v>-0.19015492769551801</v>
       </c>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.2">
@@ -8583,22 +8583,22 @@
         <v>99</v>
       </c>
       <c r="BQ21">
-        <v>-134.796221624216</v>
+        <v>0.33289019028123701</v>
       </c>
       <c r="BR21">
-        <v>0.36940000000000001</v>
+        <v>0.442045457138729</v>
       </c>
       <c r="BS21">
-        <v>0.89710000000000001</v>
+        <v>1.1537117661419101</v>
       </c>
       <c r="BT21">
-        <v>-1.1831840361529</v>
+        <v>0.54437650501970403</v>
       </c>
       <c r="BU21">
-        <v>1.3234407918386299</v>
+        <v>0.13735357715461599</v>
       </c>
       <c r="BV21">
-        <v>0.482531567602069</v>
+        <v>-0.30504896353712202</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.2">
@@ -8807,22 +8807,22 @@
         <v>196</v>
       </c>
       <c r="BQ22">
-        <v>-98.593096553727406</v>
+        <v>0.20564889429056299</v>
       </c>
       <c r="BR22">
-        <v>0.26889999999999997</v>
+        <v>0.40186403845827301</v>
       </c>
       <c r="BS22">
-        <v>0.87370000000000003</v>
+        <v>1.79293778213238</v>
       </c>
       <c r="BT22">
-        <v>-1.2795619426334099</v>
+        <v>1.43303948217488</v>
       </c>
       <c r="BU22">
-        <v>1.8796881403993599</v>
+        <v>7.9673160204535201E-2</v>
       </c>
       <c r="BV22">
-        <v>0.82152876434571698</v>
+        <v>-0.97505363676711299</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.2">
@@ -9031,22 +9031,22 @@
         <v>213</v>
       </c>
       <c r="BQ23">
-        <v>-117.579142180875</v>
+        <v>0.214718034975173</v>
       </c>
       <c r="BR23">
-        <v>0.32040000000000002</v>
+        <v>0.44823018226292399</v>
       </c>
       <c r="BS23">
-        <v>0.86150000000000004</v>
+        <v>1.7953024570010201</v>
       </c>
       <c r="BT23">
-        <v>-0.71704458688894102</v>
+        <v>1.06712222423887</v>
       </c>
       <c r="BU23">
-        <v>1.4631170900794599</v>
+        <v>-0.53540111260789902</v>
       </c>
       <c r="BV23">
-        <v>1.08708767510257</v>
+        <v>0.31007950480854701</v>
       </c>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.2">
@@ -9255,22 +9255,22 @@
         <v>330</v>
       </c>
       <c r="BQ24">
-        <v>-162.18186632209</v>
+        <v>4.2428203848660098E-2</v>
       </c>
       <c r="BR24">
-        <v>0.12759999999999999</v>
+        <v>6.3980076271133099E-2</v>
       </c>
       <c r="BS24">
-        <v>0.25459999999999999</v>
+        <v>1.83228156649898</v>
       </c>
       <c r="BT24">
-        <v>-2.0520179673243502</v>
+        <v>1.7934711077149701</v>
       </c>
       <c r="BU24">
-        <v>1.5873608032834201</v>
+        <v>3.7947630266227002E-2</v>
       </c>
       <c r="BV24">
-        <v>0.96186727280885898</v>
+        <v>-0.77441235839064204</v>
       </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.2">
@@ -9479,22 +9479,22 @@
         <v>95</v>
       </c>
       <c r="BQ25">
-        <v>-58.184112111257299</v>
+        <v>0.20403438305475999</v>
       </c>
       <c r="BR25">
-        <v>0.30249999999999999</v>
+        <v>0.23610185335377301</v>
       </c>
       <c r="BS25">
-        <v>0.50680000000000003</v>
+        <v>2.0239735182112102</v>
       </c>
       <c r="BT25">
-        <v>-1.0714361175579501</v>
+        <v>2.3314785751660398</v>
       </c>
       <c r="BU25">
-        <v>1.8317257290739599</v>
+        <v>-0.20121067857813299</v>
       </c>
       <c r="BV25">
-        <v>1.8052383920493</v>
+        <v>-0.68347323761426704</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.2">
@@ -9703,22 +9703,22 @@
         <v>713</v>
       </c>
       <c r="BQ26">
-        <v>-75.349284475398306</v>
+        <v>0.140533382413114</v>
       </c>
       <c r="BR26">
-        <v>0.33450000000000002</v>
+        <v>0.221742667078277</v>
       </c>
       <c r="BS26">
-        <v>0.32969999999999999</v>
+        <v>1.84442343638814</v>
       </c>
       <c r="BT26">
-        <v>-1.5480920879250499</v>
+        <v>2.3879442920877598</v>
       </c>
       <c r="BU26">
-        <v>1.71137806116449</v>
+        <v>-6.2232260737934003E-2</v>
       </c>
       <c r="BV26">
-        <v>2.2558751583223802</v>
+        <v>-0.32530782700728</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.2">
@@ -9927,22 +9927,22 @@
         <v>843</v>
       </c>
       <c r="BQ27">
-        <v>-114.67111241329999</v>
+        <v>0.23282562272131299</v>
       </c>
       <c r="BR27">
-        <v>0.32540000000000002</v>
+        <v>0.65056803878946301</v>
       </c>
       <c r="BS27">
-        <v>0.89729999999999999</v>
+        <v>1.7782001530629601</v>
       </c>
       <c r="BT27">
-        <v>-0.81103065015539</v>
+        <v>0.51214732272857799</v>
       </c>
       <c r="BU27">
-        <v>1.70783692537763</v>
+        <v>-0.17559169365990401</v>
       </c>
       <c r="BV27">
-        <v>-0.125085432174869</v>
+        <v>-0.72686406206242404</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.2">
@@ -10151,22 +10151,22 @@
         <v>126</v>
       </c>
       <c r="BQ28">
-        <v>-49.3868939940239</v>
+        <v>0.16351552882031301</v>
       </c>
       <c r="BR28">
-        <v>0.27060000000000001</v>
+        <v>0.214621949934555</v>
       </c>
       <c r="BS28">
-        <v>0.72709999999999997</v>
+        <v>2.8685449948128801</v>
       </c>
       <c r="BT28">
-        <v>-2.0177914044123502</v>
+        <v>1.62059239386302</v>
       </c>
       <c r="BU28">
-        <v>2.4039996018230299</v>
+        <v>0.10024782188338099</v>
       </c>
       <c r="BV28">
-        <v>1.8365387948684899</v>
+        <v>0.35687285947530001</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.2">
@@ -10375,22 +10375,22 @@
         <v>647</v>
       </c>
       <c r="BQ29">
-        <v>-82.294699015430794</v>
+        <v>7.0548161359247699E-2</v>
       </c>
       <c r="BR29">
-        <v>0.19639999999999999</v>
+        <v>0.22567393990067999</v>
       </c>
       <c r="BS29">
-        <v>0.23749999999999999</v>
+        <v>2.1874361525966601</v>
       </c>
       <c r="BT29">
-        <v>-0.36222088391919599</v>
+        <v>1.8522920520388799</v>
       </c>
       <c r="BU29">
-        <v>1.96481284620143</v>
+        <v>0.45147420617223999</v>
       </c>
       <c r="BV29">
-        <v>1.6009380656563701</v>
+        <v>0.13403400562437701</v>
       </c>
     </row>
   </sheetData>

--- a/data_sum/operant_sample1_modeling.xlsx
+++ b/data_sum/operant_sample1_modeling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larawieland/Documents/Promotion/SALAD_3/data_sum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6F32B0-CFCA-1049-B381-72E86897F3F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FEABEB-D9C2-3D4A-AC72-FE071637F2DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="660" windowWidth="24340" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="-14780" windowWidth="24340" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1156">
   <si>
     <t>sub_id</t>
   </si>
@@ -3479,6 +3479,15 @@
   </si>
   <si>
     <t>sc_bet_loss</t>
+  </si>
+  <si>
+    <t>sc_win</t>
+  </si>
+  <si>
+    <t>sc_loss</t>
+  </si>
+  <si>
+    <t>PSS_Total</t>
   </si>
 </sst>
 </file>
@@ -3540,9 +3549,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:BV29" totalsRowShown="0">
-  <autoFilter ref="A1:BV29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:BY29" totalsRowShown="0">
+  <autoFilter ref="A1:BY29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="77">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sub_id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="group"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="order"/>
@@ -3557,6 +3566,7 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="num_forward"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="num_backward"/>
     <tableColumn id="68" xr3:uid="{9771D65B-49D4-5F45-9D01-C73E544CA044}" name="BIS_total"/>
+    <tableColumn id="77" xr3:uid="{DE117B62-4274-0046-B37E-0E4E14973933}" name="PSS_Total"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="IQ_WST"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="school_yrs"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="mean_RT_T1"/>
@@ -3615,8 +3625,10 @@
     <tableColumn id="70" xr3:uid="{BAE2B17A-025A-8D49-9760-390887D490A7}" name="al_loss"/>
     <tableColumn id="71" xr3:uid="{5621703F-F3CE-FF41-9D43-A6AE312C432B}" name="bet_win"/>
     <tableColumn id="72" xr3:uid="{0B293E2D-F95A-5141-87D7-395B202440AB}" name="bet_loss"/>
-    <tableColumn id="73" xr3:uid="{79E7B7CC-4CBC-4C48-9548-EBE9CF1427DB}" name="sc_bet_win"/>
-    <tableColumn id="74" xr3:uid="{256345A5-776B-0342-A9BF-B089C9C050C1}" name="sc_bet_loss"/>
+    <tableColumn id="73" xr3:uid="{79E7B7CC-4CBC-4C48-9548-EBE9CF1427DB}" name="sc_win"/>
+    <tableColumn id="74" xr3:uid="{256345A5-776B-0342-A9BF-B089C9C050C1}" name="sc_loss"/>
+    <tableColumn id="75" xr3:uid="{781D4E8A-9551-E34B-B676-C7E9DBFD5F70}" name="sc_bet_win"/>
+    <tableColumn id="76" xr3:uid="{8F5BF66D-8C1E-034A-AA90-2B311F9FC8A8}" name="sc_bet_loss"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3901,15 +3913,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV29"/>
+  <dimension ref="A1:BY29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="CA10" sqref="CA10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3953,187 +3965,196 @@
         <v>1146</v>
       </c>
       <c r="O1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>1147</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>1148</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>1149</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>1150</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="BX1" t="s">
         <v>1151</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -4177,187 +4198,196 @@
         <v>67</v>
       </c>
       <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
         <v>90</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>69</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>70</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>71</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>72</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>73</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>74</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>75</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>76</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>88</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>91</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>94</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>96</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>97</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>99</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>100</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>101</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>103</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>104</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>105</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>106</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>107</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>108</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>109</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>111</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>112</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>113</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>114</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>115</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>116</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>117</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>118</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>119</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>3.3749659017537598E-2</v>
       </c>
-      <c r="BR2">
+      <c r="BS2">
         <v>0.34601990922606202</v>
       </c>
-      <c r="BS2">
-        <v>1.74152919562174</v>
-      </c>
       <c r="BT2">
-        <v>0.47967486629865602</v>
+        <v>5.7060624401320803</v>
       </c>
       <c r="BU2">
+        <v>1.6155490473507701</v>
+      </c>
+      <c r="BV2">
         <v>-0.48246735807442798</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>-0.346096577956584</v>
       </c>
+      <c r="BX2">
+        <v>3.5221156202587101</v>
+      </c>
+      <c r="BY2">
+        <v>1.1429107392196201</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -4401,187 +4431,196 @@
         <v>54</v>
       </c>
       <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
         <v>104</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>121</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>122</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>123</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>124</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>125</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>126</v>
-      </c>
-      <c r="W3" t="s">
-        <v>106</v>
       </c>
       <c r="X3" t="s">
         <v>106</v>
       </c>
       <c r="Y3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" t="s">
         <v>127</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>128</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>129</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>130</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>131</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>132</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>133</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>134</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>135</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>136</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>137</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>138</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>139</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>117</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>140</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>141</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>142</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>143</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>118</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>144</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>145</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>146</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>147</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>148</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>149</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>150</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>151</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>152</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>153</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>154</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>155</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>156</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>157</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>158</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>159</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>160</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>161</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>144</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BL3" t="s">
         <v>162</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BM3" t="s">
         <v>163</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="BN3" t="s">
         <v>164</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>150</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>165</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>101</v>
       </c>
-      <c r="BQ3">
+      <c r="BR3">
         <v>0.22711067812746599</v>
       </c>
-      <c r="BR3">
+      <c r="BS3">
         <v>0.57114357630567403</v>
       </c>
-      <c r="BS3">
-        <v>1.10546618297845</v>
-      </c>
       <c r="BT3">
-        <v>0.54185088284372296</v>
+        <v>3.0206323079918902</v>
       </c>
       <c r="BU3">
+        <v>1.71918593098017</v>
+      </c>
+      <c r="BV3">
         <v>-0.149792832644881</v>
       </c>
-      <c r="BV3">
+      <c r="BW3">
         <v>0.28552077400074899</v>
       </c>
+      <c r="BX3">
+        <v>2.6004209878751201</v>
+      </c>
+      <c r="BY3">
+        <v>2.2872990260525299</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -4624,188 +4663,194 @@
       <c r="N4">
         <v>69</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>85</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>11</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>167</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>168</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>125</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>126</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>169</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>170</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>171</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>173</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>177</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>178</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>179</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>180</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>181</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>182</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>183</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>184</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>185</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>186</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>187</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>188</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>189</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>190</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>191</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>192</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>193</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>194</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>195</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>82</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>196</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>197</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>198</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>199</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>200</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>201</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>139</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>202</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>203</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>204</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>205</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>206</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>207</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>208</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>209</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>210</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>211</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>212</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>213</v>
       </c>
       <c r="BP4" t="s">
         <v>213</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR4">
         <v>0.168468865392258</v>
       </c>
-      <c r="BR4">
+      <c r="BS4">
         <v>0.29856914159399001</v>
       </c>
-      <c r="BS4">
-        <v>1.46099372204197</v>
-      </c>
       <c r="BT4">
-        <v>1.0337159556990101</v>
+        <v>4.3102405819767498</v>
       </c>
       <c r="BU4">
+        <v>2.81149383424358</v>
+      </c>
+      <c r="BV4">
         <v>0.13155603791655601</v>
       </c>
-      <c r="BV4">
+      <c r="BW4">
         <v>-4.6111333073499003E-2</v>
       </c>
+      <c r="BX4">
+        <v>4.9162682648595997</v>
+      </c>
+      <c r="BY4">
+        <v>2.6847956649502702</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4849,187 +4894,196 @@
         <v>63</v>
       </c>
       <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5">
         <v>93</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>13</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>215</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>216</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>217</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>218</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>219</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>220</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>221</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>222</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>223</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>224</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>225</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>226</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>227</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>229</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>230</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>231</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>232</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>233</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>234</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>235</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>236</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>237</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>238</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>239</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>206</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>240</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>241</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>242</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>243</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>244</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>245</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>213</v>
       </c>
       <c r="AX5" t="s">
         <v>213</v>
       </c>
       <c r="AY5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>246</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>247</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>248</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>249</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>250</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>236</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>251</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>252</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>253</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>254</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>255</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>256</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>257</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>258</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>259</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>196</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>260</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>213</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>0.143532833929191</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>0.30642130850684601</v>
       </c>
-      <c r="BS5">
-        <v>1.9133346438900201</v>
-      </c>
       <c r="BT5">
-        <v>1.31073622608664</v>
+        <v>6.7756455332686301</v>
       </c>
       <c r="BU5">
+        <v>3.70890329865182</v>
+      </c>
+      <c r="BV5">
         <v>0.141362091414032</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>0.50482723298507604</v>
       </c>
+      <c r="BX5">
+        <v>7.8044706932812602</v>
+      </c>
+      <c r="BY5">
+        <v>6.1445373975635702</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>261</v>
       </c>
@@ -5073,187 +5127,196 @@
         <v>74</v>
       </c>
       <c r="O6">
+        <v>24</v>
+      </c>
+      <c r="P6">
         <v>88</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>262</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>263</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>264</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>265</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>266</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>267</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>268</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>269</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>270</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>80</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>271</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>272</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>273</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>274</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>275</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>276</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>277</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>278</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>279</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>280</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>107</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>281</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>282</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>283</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>284</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>285</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>286</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>287</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>288</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>289</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>290</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>105</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>291</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>292</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>293</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>294</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>295</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>296</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>113</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>107</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>297</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>298</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BH6" t="s">
         <v>299</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>143</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>287</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>144</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BL6" t="s">
         <v>300</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BM6" t="s">
         <v>301</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BN6" t="s">
         <v>302</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>303</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>304</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>305</v>
       </c>
-      <c r="BQ6">
+      <c r="BR6">
         <v>9.0379433712604498E-2</v>
       </c>
-      <c r="BR6">
+      <c r="BS6">
         <v>0.70276377885577701</v>
       </c>
-      <c r="BS6">
-        <v>0.91939584489317205</v>
-      </c>
       <c r="BT6">
-        <v>1.02683493665536</v>
+        <v>2.5077748471902499</v>
       </c>
       <c r="BU6">
+        <v>2.7922142991244301</v>
+      </c>
+      <c r="BV6">
         <v>0.25227592851584801</v>
       </c>
-      <c r="BV6">
+      <c r="BW6">
         <v>-0.28584661775709702</v>
       </c>
+      <c r="BX6">
+        <v>3.22738358511066</v>
+      </c>
+      <c r="BY6">
+        <v>2.0980079911381</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -5297,187 +5360,196 @@
         <v>61</v>
       </c>
       <c r="O7">
+        <v>27</v>
+      </c>
+      <c r="P7">
         <v>107</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12.5</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>307</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>308</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>309</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>310</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>311</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>312</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>313</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>314</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>315</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>316</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>317</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>318</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>319</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>245</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>320</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>321</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>322</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>323</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>324</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>87</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>325</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>326</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>327</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>328</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>329</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>93</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>95</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>330</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>331</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>332</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>333</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>334</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>213</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>334</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>335</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>336</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>337</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>249</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>338</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>339</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>340</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>341</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>342</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>343</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>344</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>208</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>345</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>346</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BN7" t="s">
         <v>347</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>95</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>348</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>312</v>
       </c>
-      <c r="BQ7">
+      <c r="BR7">
         <v>0.108149850154973</v>
       </c>
-      <c r="BR7">
+      <c r="BS7">
         <v>0.28373926618510298</v>
       </c>
-      <c r="BS7">
-        <v>1.84186107435012</v>
-      </c>
       <c r="BT7">
-        <v>1.6404560698132</v>
+        <v>6.30826749798441</v>
       </c>
       <c r="BU7">
+        <v>5.1575211656494302</v>
+      </c>
+      <c r="BV7">
         <v>-0.15455867893363101</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
         <v>0.23331283688676599</v>
       </c>
+      <c r="BX7">
+        <v>5.4048807903929896</v>
+      </c>
+      <c r="BY7">
+        <v>6.5127963230196002</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -5517,188 +5589,194 @@
       <c r="M8">
         <v>7</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>101</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>14</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>350</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>351</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>352</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>353</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>354</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>356</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>358</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>359</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>360</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>361</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>362</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>363</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>364</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>365</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>366</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>367</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>368</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>369</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>370</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>371</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>372</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>373</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>374</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>375</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>376</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>95</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>377</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>378</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>379</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>106</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>380</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>381</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>382</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>383</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>384</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>201</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>385</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>281</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>386</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>387</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>388</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>389</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>240</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>207</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>390</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>391</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BN8" t="s">
         <v>392</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>393</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>394</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>213</v>
       </c>
-      <c r="BQ8">
+      <c r="BR8">
         <v>0.156593073875155</v>
       </c>
-      <c r="BR8">
+      <c r="BS8">
         <v>0.39302413997605301</v>
       </c>
-      <c r="BS8">
-        <v>1.9452254807627001</v>
-      </c>
       <c r="BT8">
-        <v>1.62732142365252</v>
+        <v>6.9952089622746998</v>
       </c>
       <c r="BU8">
+        <v>5.0902218936650199</v>
+      </c>
+      <c r="BV8">
         <v>0.31154256063091901</v>
       </c>
-      <c r="BV8">
+      <c r="BW8">
         <v>-0.40179045698015903</v>
       </c>
+      <c r="BX8">
+        <v>9.5521670157288394</v>
+      </c>
+      <c r="BY8">
+        <v>3.4059740614736902</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -5742,187 +5820,196 @@
         <v>59</v>
       </c>
       <c r="O9">
+        <v>21</v>
+      </c>
+      <c r="P9">
         <v>101</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>13</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>396</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>397</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>398</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>399</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>400</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>401</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>88</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>402</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>403</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>404</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>405</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>406</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>407</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>408</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>409</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>410</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>411</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>412</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>413</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>414</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>415</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>113</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>416</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>417</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>418</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>419</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AR9" t="s">
         <v>287</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS9" t="s">
         <v>144</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>420</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" t="s">
         <v>421</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>422</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>423</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>424</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>425</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>426</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="BA9" t="s">
         <v>427</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BB9" t="s">
         <v>428</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BC9" t="s">
         <v>371</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>155</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>385</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>429</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>430</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BH9" t="s">
         <v>431</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BI9" t="s">
         <v>432</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BJ9" t="s">
         <v>287</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BK9" t="s">
         <v>376</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BL9" t="s">
         <v>433</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BM9" t="s">
         <v>434</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BN9" t="s">
         <v>435</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BO9" t="s">
         <v>436</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BP9" t="s">
         <v>172</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BQ9" t="s">
         <v>437</v>
       </c>
-      <c r="BQ9">
+      <c r="BR9">
         <v>0.29651199330697797</v>
       </c>
-      <c r="BR9">
+      <c r="BS9">
         <v>0.64135026446160803</v>
       </c>
-      <c r="BS9">
-        <v>0.82787544850094497</v>
-      </c>
       <c r="BT9">
-        <v>0.13453166119818599</v>
+        <v>2.28845163853161</v>
       </c>
       <c r="BU9">
+        <v>1.14400087886756</v>
+      </c>
+      <c r="BV9">
         <v>0.72999667581427197</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>1.40144688210716</v>
       </c>
+      <c r="BX9">
+        <v>4.7487058311106303</v>
+      </c>
+      <c r="BY9">
+        <v>4.6458694908479101</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>438</v>
       </c>
@@ -5966,97 +6053,97 @@
         <v>54</v>
       </c>
       <c r="O10">
+        <v>17</v>
+      </c>
+      <c r="P10">
         <v>122</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>13</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>439</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>308</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>440</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>441</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>442</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>213</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>319</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>245</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>443</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>444</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>445</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>446</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>442</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>213</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>447</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>448</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>449</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>450</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>451</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>442</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>452</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>339</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>453</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>454</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>455</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>213</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>456</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>241</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>442</v>
       </c>
       <c r="AT10" t="s">
         <v>442</v>
@@ -6065,7 +6152,7 @@
         <v>442</v>
       </c>
       <c r="AV10" t="s">
-        <v>213</v>
+        <v>442</v>
       </c>
       <c r="AW10" t="s">
         <v>213</v>
@@ -6074,43 +6161,43 @@
         <v>213</v>
       </c>
       <c r="AY10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>457</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>458</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>459</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>442</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>339</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>460</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>442</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>460</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>461</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>213</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>456</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>256</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>442</v>
       </c>
       <c r="BL10" t="s">
         <v>442</v>
@@ -6119,7 +6206,7 @@
         <v>442</v>
       </c>
       <c r="BN10" t="s">
-        <v>213</v>
+        <v>442</v>
       </c>
       <c r="BO10" t="s">
         <v>213</v>
@@ -6127,26 +6214,35 @@
       <c r="BP10" t="s">
         <v>213</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR10">
         <v>0.107565932900949</v>
       </c>
-      <c r="BR10">
+      <c r="BS10">
         <v>0.13500411064186699</v>
       </c>
-      <c r="BS10">
-        <v>2.94487344515893</v>
-      </c>
       <c r="BT10">
-        <v>1.6123714771535</v>
+        <v>19.008256647343799</v>
       </c>
       <c r="BU10">
+        <v>5.0146893591554198</v>
+      </c>
+      <c r="BV10">
         <v>0.17348764213457499</v>
       </c>
-      <c r="BV10">
+      <c r="BW10">
         <v>1.2580357289008799</v>
       </c>
+      <c r="BX10">
+        <v>22.609294601696</v>
+      </c>
+      <c r="BY10">
+        <v>17.6442015628847</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>462</v>
       </c>
@@ -6186,188 +6282,194 @@
       <c r="M11">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>90</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>13</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>463</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>464</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>465</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>466</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>467</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>468</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>469</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>156</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>470</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>471</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>472</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>473</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>474</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>475</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>156</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>469</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>476</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>477</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>478</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>285</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>479</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>480</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>481</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>482</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>483</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>484</v>
       </c>
-      <c r="AQ11" t="s">
+      <c r="AR11" t="s">
         <v>485</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AS11" t="s">
         <v>486</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>487</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AU11" t="s">
         <v>488</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>489</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>156</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>490</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>334</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>491</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>492</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>493</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>154</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>150</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>236</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>494</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>495</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BH11" t="s">
         <v>496</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>432</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>497</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>456</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>498</v>
       </c>
-      <c r="BL11" t="s">
+      <c r="BM11" t="s">
         <v>499</v>
       </c>
-      <c r="BM11" t="s">
+      <c r="BN11" t="s">
         <v>500</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>501</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>502</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>334</v>
       </c>
-      <c r="BQ11">
+      <c r="BR11">
         <v>0.197304510781806</v>
       </c>
-      <c r="BR11">
+      <c r="BS11">
         <v>0.28584479782841699</v>
       </c>
-      <c r="BS11">
-        <v>0.58288409722016599</v>
-      </c>
       <c r="BT11">
-        <v>0.52607110064336404</v>
+        <v>1.79119697451844</v>
       </c>
       <c r="BU11">
+        <v>1.6922704699805</v>
+      </c>
+      <c r="BV11">
         <v>0.70853159514417996</v>
       </c>
-      <c r="BV11">
+      <c r="BW11">
         <v>0.49921830533690498</v>
       </c>
+      <c r="BX11">
+        <v>3.6379331060475102</v>
+      </c>
+      <c r="BY11">
+        <v>2.78790217938871</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>503</v>
       </c>
@@ -6411,187 +6513,196 @@
         <v>67</v>
       </c>
       <c r="O12">
+        <v>19</v>
+      </c>
+      <c r="P12">
         <v>101</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>504</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>505</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>506</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>507</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>508</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>509</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>510</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>511</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>512</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>513</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>514</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>515</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>516</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>517</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>518</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>519</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>520</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>521</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>522</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>523</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>524</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>235</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>525</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>526</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>527</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>111</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AR12" t="s">
         <v>528</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>207</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>529</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AU12" t="s">
         <v>530</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>531</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>532</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>533</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>112</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>534</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>535</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>536</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>537</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>538</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>326</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>539</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>540</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BH12" t="s">
         <v>541</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>542</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>207</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>286</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>543</v>
       </c>
-      <c r="BL12" t="s">
+      <c r="BM12" t="s">
         <v>544</v>
       </c>
-      <c r="BM12" t="s">
+      <c r="BN12" t="s">
         <v>545</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>436</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>546</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>547</v>
       </c>
-      <c r="BQ12">
+      <c r="BR12">
         <v>0.443162596624875</v>
       </c>
-      <c r="BR12">
+      <c r="BS12">
         <v>0.51995011929615098</v>
       </c>
-      <c r="BS12">
-        <v>1.13982551054293</v>
-      </c>
       <c r="BT12">
-        <v>0.99202346820181997</v>
+        <v>3.1262228246686599</v>
       </c>
       <c r="BU12">
+        <v>2.6966856129726202</v>
+      </c>
+      <c r="BV12">
         <v>-0.15846268473448699</v>
       </c>
-      <c r="BV12">
+      <c r="BW12">
         <v>0.16787458272271299</v>
       </c>
+      <c r="BX12">
+        <v>2.6680899071253501</v>
+      </c>
+      <c r="BY12">
+        <v>3.1896080819447898</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>548</v>
       </c>
@@ -6635,187 +6746,196 @@
         <v>48</v>
       </c>
       <c r="O13">
+        <v>22</v>
+      </c>
+      <c r="P13">
         <v>107</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>13</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>549</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>550</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>551</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>552</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>553</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>554</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>235</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>208</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>555</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>556</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>557</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>558</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>559</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>560</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>561</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>562</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>563</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>564</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>565</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>369</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>566</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>460</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AN13" t="s">
         <v>567</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>568</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>569</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>570</v>
       </c>
-      <c r="AQ13" t="s">
+      <c r="AR13" t="s">
         <v>240</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AS13" t="s">
         <v>256</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>571</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AU13" t="s">
         <v>572</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>573</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>160</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>394</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>212</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>574</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>575</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>576</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>577</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>578</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>579</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>580</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>581</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BH13" t="s">
         <v>582</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>389</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>240</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>330</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>583</v>
       </c>
-      <c r="BL13" t="s">
+      <c r="BM13" t="s">
         <v>584</v>
       </c>
-      <c r="BM13" t="s">
+      <c r="BN13" t="s">
         <v>585</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>437</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>586</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>213</v>
       </c>
-      <c r="BQ13">
+      <c r="BR13">
         <v>0.215528105305304</v>
       </c>
-      <c r="BR13">
+      <c r="BS13">
         <v>0.30652054875453399</v>
       </c>
-      <c r="BS13">
-        <v>2.1839780414740102</v>
-      </c>
       <c r="BT13">
-        <v>1.94047625893135</v>
+        <v>8.8815673203927705</v>
       </c>
       <c r="BU13">
+        <v>6.9620659272642804</v>
+      </c>
+      <c r="BV13">
         <v>-6.0761536405578402E-2</v>
       </c>
-      <c r="BV13">
+      <c r="BW13">
         <v>-0.81953891198047701</v>
       </c>
+      <c r="BX13">
+        <v>8.3579777764644891</v>
+      </c>
+      <c r="BY13">
+        <v>3.0677283818761598</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>587</v>
       </c>
@@ -6859,187 +6979,196 @@
         <v>65</v>
       </c>
       <c r="O14">
+        <v>19</v>
+      </c>
+      <c r="P14">
         <v>95</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>9</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>588</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>589</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>590</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>591</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>592</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>593</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>469</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>156</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>594</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>595</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>596</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>597</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>598</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>599</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>600</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>601</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>602</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>603</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>604</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>605</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>538</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>385</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AN14" t="s">
         <v>606</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AO14" t="s">
         <v>607</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AP14" t="s">
         <v>608</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>126</v>
       </c>
-      <c r="AQ14" t="s">
+      <c r="AR14" t="s">
         <v>497</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>192</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AT14" t="s">
         <v>609</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AU14" t="s">
         <v>610</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AV14" t="s">
         <v>611</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>612</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>613</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>196</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>614</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>615</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BB14" t="s">
         <v>616</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BC14" t="s">
         <v>577</v>
       </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>578</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>235</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>617</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
         <v>618</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BH14" t="s">
         <v>619</v>
       </c>
-      <c r="BH14" t="s">
+      <c r="BI14" t="s">
         <v>254</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>192</v>
       </c>
       <c r="BJ14" t="s">
         <v>192</v>
       </c>
       <c r="BK14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL14" t="s">
         <v>620</v>
       </c>
-      <c r="BL14" t="s">
+      <c r="BM14" t="s">
         <v>621</v>
       </c>
-      <c r="BM14" t="s">
+      <c r="BN14" t="s">
         <v>622</v>
       </c>
-      <c r="BN14" t="s">
+      <c r="BO14" t="s">
         <v>437</v>
       </c>
-      <c r="BO14" t="s">
+      <c r="BP14" t="s">
         <v>394</v>
       </c>
-      <c r="BP14" t="s">
+      <c r="BQ14" t="s">
         <v>213</v>
       </c>
-      <c r="BQ14">
+      <c r="BR14">
         <v>0.45457115321685698</v>
       </c>
-      <c r="BR14">
+      <c r="BS14">
         <v>0.50571942681840698</v>
       </c>
-      <c r="BS14">
-        <v>1.35335469809391</v>
-      </c>
       <c r="BT14">
-        <v>0.75650556699043503</v>
+        <v>3.8703877587967601</v>
       </c>
       <c r="BU14">
+        <v>2.1308171976064698</v>
+      </c>
+      <c r="BV14">
         <v>0.17011508376602</v>
       </c>
-      <c r="BV14">
+      <c r="BW14">
         <v>0.37579360453347299</v>
       </c>
+      <c r="BX14">
+        <v>4.5881173744371804</v>
+      </c>
+      <c r="BY14">
+        <v>3.10278213378565</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>623</v>
       </c>
@@ -7083,187 +7212,196 @@
         <v>68</v>
       </c>
       <c r="O15">
+        <v>26</v>
+      </c>
+      <c r="P15">
         <v>110</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>14</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>624</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>471</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>556</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>625</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>626</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>627</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>628</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>629</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>630</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>202</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>631</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>632</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>633</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>634</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>305</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>635</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>636</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>637</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>638</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>639</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>640</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>486</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>641</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>642</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>643</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>93</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>344</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>95</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>644</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>645</v>
       </c>
-      <c r="AU15" t="s">
+      <c r="AV15" t="s">
         <v>646</v>
       </c>
-      <c r="AV15" t="s">
+      <c r="AW15" t="s">
         <v>112</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>647</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>648</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>649</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="BA15" t="s">
         <v>650</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="BB15" t="s">
         <v>651</v>
       </c>
-      <c r="BB15" t="s">
+      <c r="BC15" t="s">
         <v>652</v>
       </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>653</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>326</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>654</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>655</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BH15" t="s">
         <v>656</v>
       </c>
-      <c r="BH15" t="s">
+      <c r="BI15" t="s">
         <v>432</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>192</v>
       </c>
-      <c r="BJ15" t="s">
+      <c r="BK15" t="s">
         <v>208</v>
       </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
         <v>657</v>
       </c>
-      <c r="BL15" t="s">
+      <c r="BM15" t="s">
         <v>658</v>
       </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
         <v>659</v>
       </c>
-      <c r="BN15" t="s">
+      <c r="BO15" t="s">
         <v>660</v>
       </c>
-      <c r="BO15" t="s">
+      <c r="BP15" t="s">
         <v>380</v>
       </c>
-      <c r="BP15" t="s">
+      <c r="BQ15" t="s">
         <v>661</v>
       </c>
-      <c r="BQ15">
+      <c r="BR15">
         <v>0.373434423478611</v>
       </c>
-      <c r="BR15">
+      <c r="BS15">
         <v>0.460098826390475</v>
       </c>
-      <c r="BS15">
-        <v>1.5306011420310599</v>
-      </c>
       <c r="BT15">
-        <v>0.56547843668977704</v>
+        <v>4.6209538371010703</v>
       </c>
       <c r="BU15">
+        <v>1.7602897684972001</v>
+      </c>
+      <c r="BV15">
         <v>7.8578762001784805E-2</v>
       </c>
-      <c r="BV15">
+      <c r="BW15">
         <v>-0.84655485837810596</v>
       </c>
+      <c r="BX15">
+        <v>4.9987101244002599</v>
+      </c>
+      <c r="BY15">
+        <v>0.75497063714480395</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>662</v>
       </c>
@@ -7307,151 +7445,151 @@
         <v>62</v>
       </c>
       <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16">
         <v>107</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>12</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>663</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>317</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>664</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>665</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>666</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>667</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>668</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>669</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>670</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>671</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>672</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>673</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>442</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>213</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>674</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>334</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>675</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>676</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>677</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>678</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>235</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>326</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>679</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>680</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>681</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>682</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>240</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>207</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>683</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>684</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>685</v>
       </c>
-      <c r="AV16" t="s">
+      <c r="AW16" t="s">
         <v>648</v>
       </c>
-      <c r="AW16" t="s">
+      <c r="AX16" t="s">
         <v>686</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>381</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>687</v>
       </c>
-      <c r="AZ16" t="s">
+      <c r="BA16" t="s">
         <v>688</v>
       </c>
-      <c r="BA16" t="s">
+      <c r="BB16" t="s">
         <v>689</v>
       </c>
-      <c r="BB16" t="s">
+      <c r="BC16" t="s">
         <v>201</v>
       </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>640</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>371</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>690</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>691</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>692</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>206</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>330</v>
       </c>
-      <c r="BJ16" t="s">
+      <c r="BK16" t="s">
         <v>241</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>442</v>
       </c>
       <c r="BL16" t="s">
         <v>442</v>
@@ -7460,34 +7598,43 @@
         <v>442</v>
       </c>
       <c r="BN16" t="s">
+        <v>442</v>
+      </c>
+      <c r="BO16" t="s">
         <v>245</v>
       </c>
-      <c r="BO16" t="s">
+      <c r="BP16" t="s">
         <v>394</v>
       </c>
-      <c r="BP16" t="s">
+      <c r="BQ16" t="s">
         <v>213</v>
       </c>
-      <c r="BQ16">
+      <c r="BR16">
         <v>0.19604022275664701</v>
       </c>
-      <c r="BR16">
+      <c r="BS16">
         <v>0.35035087748668298</v>
       </c>
-      <c r="BS16">
-        <v>2.3922539209142499</v>
-      </c>
       <c r="BT16">
-        <v>1.88571675302126</v>
+        <v>10.938119837271399</v>
       </c>
       <c r="BU16">
+        <v>6.5910769236848301</v>
+      </c>
+      <c r="BV16">
         <v>-0.27389114201592901</v>
       </c>
-      <c r="BV16">
+      <c r="BW16">
         <v>-0.35290988002387302</v>
       </c>
+      <c r="BX16">
+        <v>8.3175087332783004</v>
+      </c>
+      <c r="BY16">
+        <v>4.6311576673887496</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>693</v>
       </c>
@@ -7531,187 +7678,196 @@
         <v>62</v>
       </c>
       <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17">
         <v>118</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>13</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>694</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>351</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>695</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>696</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>697</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>698</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>699</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>700</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>701</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>702</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>695</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>696</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>703</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>704</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>705</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>143</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>706</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>707</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>708</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>234</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>155</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>709</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>710</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>711</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>712</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>254</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>713</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>330</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>714</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>715</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AV17" t="s">
         <v>716</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AW17" t="s">
         <v>101</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>686</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>213</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>717</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>718</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>719</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>523</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>326</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>720</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>721</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>722</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>723</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>93</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>344</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>240</v>
       </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
         <v>724</v>
       </c>
-      <c r="BL17" t="s">
+      <c r="BM17" t="s">
         <v>725</v>
       </c>
-      <c r="BM17" t="s">
+      <c r="BN17" t="s">
         <v>726</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BO17" t="s">
         <v>727</v>
       </c>
-      <c r="BO17" t="s">
+      <c r="BP17" t="s">
         <v>393</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>245</v>
       </c>
-      <c r="BQ17">
+      <c r="BR17">
         <v>0.10209777107449899</v>
       </c>
-      <c r="BR17">
+      <c r="BS17">
         <v>0.38112066674259498</v>
       </c>
-      <c r="BS17">
-        <v>1.68348988229774</v>
-      </c>
       <c r="BT17">
-        <v>0.93049963251203904</v>
+        <v>5.38431384226626</v>
       </c>
       <c r="BU17">
+        <v>2.53577581720586</v>
+      </c>
+      <c r="BV17">
         <v>0.23762322213363499</v>
       </c>
-      <c r="BV17">
+      <c r="BW17">
         <v>4.98494571118904E-2</v>
       </c>
+      <c r="BX17">
+        <v>6.8285551355462397</v>
+      </c>
+      <c r="BY17">
+        <v>2.6653865383258499</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>728</v>
       </c>
@@ -7751,188 +7907,194 @@
       <c r="M18">
         <v>10</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>114</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>12</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>729</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>351</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>730</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>731</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>732</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>733</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>699</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>700</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>734</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>735</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>70</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>71</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>736</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>737</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>738</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>739</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>740</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>741</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>742</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>743</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>566</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>744</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>745</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>746</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>747</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>95</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AR18" t="s">
         <v>192</v>
       </c>
-      <c r="AR18" t="s">
+      <c r="AS18" t="s">
         <v>241</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AT18" t="s">
         <v>748</v>
       </c>
-      <c r="AT18" t="s">
+      <c r="AU18" t="s">
         <v>749</v>
       </c>
-      <c r="AU18" t="s">
+      <c r="AV18" t="s">
         <v>750</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>156</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>751</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>213</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>752</v>
       </c>
-      <c r="AZ18" t="s">
+      <c r="BA18" t="s">
         <v>753</v>
       </c>
-      <c r="BA18" t="s">
+      <c r="BB18" t="s">
         <v>754</v>
       </c>
-      <c r="BB18" t="s">
+      <c r="BC18" t="s">
         <v>639</v>
       </c>
-      <c r="BC18" t="s">
+      <c r="BD18" t="s">
         <v>674</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BE18" t="s">
         <v>89</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>755</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
         <v>756</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BH18" t="s">
         <v>757</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>126</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>118</v>
       </c>
       <c r="BJ18" t="s">
         <v>118</v>
       </c>
       <c r="BK18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BL18" t="s">
         <v>758</v>
       </c>
-      <c r="BL18" t="s">
+      <c r="BM18" t="s">
         <v>759</v>
       </c>
-      <c r="BM18" t="s">
+      <c r="BN18" t="s">
         <v>760</v>
       </c>
-      <c r="BN18" t="s">
+      <c r="BO18" t="s">
         <v>150</v>
       </c>
-      <c r="BO18" t="s">
+      <c r="BP18" t="s">
         <v>761</v>
       </c>
-      <c r="BP18" t="s">
+      <c r="BQ18" t="s">
         <v>126</v>
       </c>
-      <c r="BQ18">
+      <c r="BR18">
         <v>0.188924251774887</v>
       </c>
-      <c r="BR18">
+      <c r="BS18">
         <v>0.66270029189331303</v>
       </c>
-      <c r="BS18">
-        <v>1.6210445900649</v>
-      </c>
       <c r="BT18">
-        <v>1.2784920597824001</v>
+        <v>5.0583714823520296</v>
       </c>
       <c r="BU18">
+        <v>3.59122029499447</v>
+      </c>
+      <c r="BV18">
         <v>0.14197864775852201</v>
       </c>
-      <c r="BV18">
+      <c r="BW18">
         <v>-0.13141936209968499</v>
       </c>
+      <c r="BX18">
+        <v>5.8300363645111597</v>
+      </c>
+      <c r="BY18">
+        <v>3.14896144250655</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>762</v>
       </c>
@@ -7975,185 +8137,194 @@
       <c r="N19">
         <v>49</v>
       </c>
-      <c r="P19">
+      <c r="O19">
+        <v>27</v>
+      </c>
+      <c r="Q19">
         <v>11</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>763</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>764</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>765</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>766</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>767</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>768</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>769</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>770</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>771</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>772</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>405</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>406</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>773</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>774</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>775</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>776</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>777</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>778</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>779</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>702</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>780</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>781</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>782</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" t="s">
         <v>783</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>784</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>190</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AR19" t="s">
         <v>785</v>
       </c>
-      <c r="AR19" t="s">
+      <c r="AS19" t="s">
         <v>287</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AT19" t="s">
         <v>786</v>
       </c>
-      <c r="AT19" t="s">
+      <c r="AU19" t="s">
         <v>787</v>
       </c>
-      <c r="AU19" t="s">
+      <c r="AV19" t="s">
         <v>788</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>480</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>208</v>
       </c>
-      <c r="AX19" t="s">
+      <c r="AY19" t="s">
         <v>281</v>
       </c>
-      <c r="AY19" t="s">
+      <c r="AZ19" t="s">
         <v>789</v>
       </c>
-      <c r="AZ19" t="s">
+      <c r="BA19" t="s">
         <v>790</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>791</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>234</v>
       </c>
-      <c r="BC19" t="s">
+      <c r="BD19" t="s">
         <v>674</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BE19" t="s">
         <v>95</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>792</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>793</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BH19" t="s">
         <v>794</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>795</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>785</v>
       </c>
-      <c r="BJ19" t="s">
+      <c r="BK19" t="s">
         <v>192</v>
       </c>
-      <c r="BK19" t="s">
+      <c r="BL19" t="s">
         <v>796</v>
       </c>
-      <c r="BL19" t="s">
+      <c r="BM19" t="s">
         <v>797</v>
       </c>
-      <c r="BM19" t="s">
+      <c r="BN19" t="s">
         <v>798</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="BO19" t="s">
         <v>705</v>
       </c>
-      <c r="BO19" t="s">
+      <c r="BP19" t="s">
         <v>799</v>
       </c>
-      <c r="BP19" t="s">
+      <c r="BQ19" t="s">
         <v>101</v>
       </c>
-      <c r="BQ19">
+      <c r="BR19">
         <v>1.47408103222445E-2</v>
       </c>
-      <c r="BR19">
+      <c r="BS19">
         <v>0.100391849746247</v>
       </c>
-      <c r="BS19">
-        <v>2.1119107178987999</v>
-      </c>
       <c r="BT19">
-        <v>0.87684533040774404</v>
+        <v>8.2640164129934703</v>
       </c>
       <c r="BU19">
+        <v>2.4033060983831702</v>
+      </c>
+      <c r="BV19">
         <v>-0.13404313871812601</v>
       </c>
-      <c r="BV19">
+      <c r="BW19">
         <v>-0.38127798850820399</v>
       </c>
+      <c r="BX19">
+        <v>7.2273148646992897</v>
+      </c>
+      <c r="BY19">
+        <v>1.6414292265133099</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>800</v>
       </c>
@@ -8197,187 +8368,196 @@
         <v>53</v>
       </c>
       <c r="O20">
+        <v>14</v>
+      </c>
+      <c r="P20">
         <v>114</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>10</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>801</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>702</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>802</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>803</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>804</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>805</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>117</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>281</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>806</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>184</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>807</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>808</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>809</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>810</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>811</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>812</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>813</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>814</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>815</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>816</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>326</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>385</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>817</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>818</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>819</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>820</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>208</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>192</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>821</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>822</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AV20" t="s">
         <v>823</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>106</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>824</v>
       </c>
-      <c r="AX20" t="s">
+      <c r="AY20" t="s">
         <v>95</v>
       </c>
-      <c r="AY20" t="s">
+      <c r="AZ20" t="s">
         <v>825</v>
       </c>
-      <c r="AZ20" t="s">
+      <c r="BA20" t="s">
         <v>826</v>
       </c>
-      <c r="BA20" t="s">
+      <c r="BB20" t="s">
         <v>827</v>
       </c>
-      <c r="BB20" t="s">
+      <c r="BC20" t="s">
         <v>828</v>
       </c>
-      <c r="BC20" t="s">
+      <c r="BD20" t="s">
         <v>235</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BE20" t="s">
         <v>653</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>829</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BG20" t="s">
         <v>830</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BH20" t="s">
         <v>831</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>111</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>240</v>
       </c>
-      <c r="BJ20" t="s">
+      <c r="BK20" t="s">
         <v>330</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BL20" t="s">
         <v>832</v>
       </c>
-      <c r="BL20" t="s">
+      <c r="BM20" t="s">
         <v>833</v>
       </c>
-      <c r="BM20" t="s">
+      <c r="BN20" t="s">
         <v>834</v>
       </c>
-      <c r="BN20" t="s">
+      <c r="BO20" t="s">
         <v>835</v>
       </c>
-      <c r="BO20" t="s">
+      <c r="BP20" t="s">
         <v>727</v>
       </c>
-      <c r="BP20" t="s">
+      <c r="BQ20" t="s">
         <v>836</v>
       </c>
-      <c r="BQ20">
+      <c r="BR20">
         <v>0.241294417481065</v>
       </c>
-      <c r="BR20">
+      <c r="BS20">
         <v>0.43362811489248598</v>
       </c>
-      <c r="BS20">
-        <v>2.12083714768929</v>
-      </c>
       <c r="BT20">
-        <v>1.2602974438961401</v>
+        <v>8.3381148002977898</v>
       </c>
       <c r="BU20">
+        <v>3.5264702584356802</v>
+      </c>
+      <c r="BV20">
         <v>-0.480528276238676</v>
       </c>
-      <c r="BV20">
+      <c r="BW20">
         <v>-0.19015492769551801</v>
       </c>
+      <c r="BX20">
+        <v>5.1567620428510699</v>
+      </c>
+      <c r="BY20">
+        <v>2.9157950183950598</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>837</v>
       </c>
@@ -8421,187 +8601,196 @@
         <v>67</v>
       </c>
       <c r="O21">
+        <v>25</v>
+      </c>
+      <c r="P21">
         <v>92</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>11</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>838</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>839</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>840</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>841</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>842</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>843</v>
-      </c>
-      <c r="W21" t="s">
-        <v>106</v>
       </c>
       <c r="X21" t="s">
         <v>106</v>
       </c>
       <c r="Y21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z21" t="s">
         <v>844</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>845</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>846</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>847</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>848</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>849</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>850</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>851</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>852</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>853</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>854</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>125</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>235</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>532</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>855</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AO21" t="s">
         <v>856</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>857</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>95</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>192</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>469</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>858</v>
       </c>
-      <c r="AT21" t="s">
+      <c r="AU21" t="s">
         <v>859</v>
       </c>
-      <c r="AU21" t="s">
+      <c r="AV21" t="s">
         <v>860</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>861</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>862</v>
       </c>
-      <c r="AX21" t="s">
+      <c r="AY21" t="s">
         <v>863</v>
       </c>
-      <c r="AY21" t="s">
+      <c r="AZ21" t="s">
         <v>864</v>
       </c>
-      <c r="AZ21" t="s">
+      <c r="BA21" t="s">
         <v>865</v>
       </c>
-      <c r="BA21" t="s">
+      <c r="BB21" t="s">
         <v>866</v>
       </c>
-      <c r="BB21" t="s">
+      <c r="BC21" t="s">
         <v>87</v>
       </c>
-      <c r="BC21" t="s">
+      <c r="BD21" t="s">
         <v>867</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BE21" t="s">
         <v>868</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>869</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
         <v>870</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BH21" t="s">
         <v>871</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>820</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>528</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BK21" t="s">
         <v>286</v>
       </c>
-      <c r="BK21" t="s">
+      <c r="BL21" t="s">
         <v>872</v>
       </c>
-      <c r="BL21" t="s">
+      <c r="BM21" t="s">
         <v>873</v>
       </c>
-      <c r="BM21" t="s">
+      <c r="BN21" t="s">
         <v>874</v>
       </c>
-      <c r="BN21" t="s">
+      <c r="BO21" t="s">
         <v>660</v>
       </c>
-      <c r="BO21" t="s">
+      <c r="BP21" t="s">
         <v>196</v>
       </c>
-      <c r="BP21" t="s">
+      <c r="BQ21" t="s">
         <v>99</v>
       </c>
-      <c r="BQ21">
+      <c r="BR21">
         <v>0.33289019028123701</v>
       </c>
-      <c r="BR21">
+      <c r="BS21">
         <v>0.442045457138729</v>
       </c>
-      <c r="BS21">
-        <v>1.1537117661419101</v>
-      </c>
       <c r="BT21">
-        <v>0.54437650501970403</v>
+        <v>3.16993716568386</v>
       </c>
       <c r="BU21">
+        <v>1.7235334328546901</v>
+      </c>
+      <c r="BV21">
         <v>0.13735357715461599</v>
       </c>
-      <c r="BV21">
+      <c r="BW21">
         <v>-0.30504896353712202</v>
       </c>
+      <c r="BX21">
+        <v>3.63665878281701</v>
+      </c>
+      <c r="BY21">
+        <v>1.2703945753678201</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>875</v>
       </c>
@@ -8645,187 +8834,196 @@
         <v>64</v>
       </c>
       <c r="O22">
+        <v>14</v>
+      </c>
+      <c r="P22">
         <v>97</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>13</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>876</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>471</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>556</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>625</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>877</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>878</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>879</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>880</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>881</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>351</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>882</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>883</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>884</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>885</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>886</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>887</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>888</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>889</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>890</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>891</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>653</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>744</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>892</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>893</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>894</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>111</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>895</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>240</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AT22" t="s">
         <v>896</v>
       </c>
-      <c r="AT22" t="s">
+      <c r="AU22" t="s">
         <v>897</v>
       </c>
-      <c r="AU22" t="s">
+      <c r="AV22" t="s">
         <v>898</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>106</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>899</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>170</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>900</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>901</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>902</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>249</v>
       </c>
-      <c r="BC22" t="s">
+      <c r="BD22" t="s">
         <v>903</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BE22" t="s">
         <v>235</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BF22" t="s">
         <v>904</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BG22" t="s">
         <v>905</v>
       </c>
-      <c r="BG22" t="s">
+      <c r="BH22" t="s">
         <v>906</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>343</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>192</v>
       </c>
       <c r="BJ22" t="s">
         <v>192</v>
       </c>
       <c r="BK22" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL22" t="s">
         <v>907</v>
       </c>
-      <c r="BL22" t="s">
+      <c r="BM22" t="s">
         <v>908</v>
       </c>
-      <c r="BM22" t="s">
+      <c r="BN22" t="s">
         <v>909</v>
       </c>
-      <c r="BN22" t="s">
+      <c r="BO22" t="s">
         <v>501</v>
       </c>
-      <c r="BO22" t="s">
+      <c r="BP22" t="s">
         <v>910</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BQ22" t="s">
         <v>196</v>
       </c>
-      <c r="BQ22">
+      <c r="BR22">
         <v>0.20564889429056299</v>
       </c>
-      <c r="BR22">
+      <c r="BS22">
         <v>0.40186403845827301</v>
       </c>
-      <c r="BS22">
-        <v>1.79293778213238</v>
-      </c>
       <c r="BT22">
-        <v>1.43303948217488</v>
+        <v>6.0070740443263402</v>
       </c>
       <c r="BU22">
+        <v>4.1914195955582798</v>
+      </c>
+      <c r="BV22">
         <v>7.9673160204535201E-2</v>
       </c>
-      <c r="BV22">
+      <c r="BW22">
         <v>-0.97505363676711299</v>
       </c>
+      <c r="BX22">
+        <v>6.5052591017327996</v>
+      </c>
+      <c r="BY22">
+        <v>1.5808866260975001</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>911</v>
       </c>
@@ -8869,187 +9067,196 @@
         <v>61</v>
       </c>
       <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23">
         <v>107</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>12</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>912</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>317</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>840</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>841</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>913</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>914</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>915</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>916</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>917</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>202</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>918</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>919</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>920</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>921</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>922</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>923</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>924</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>925</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>926</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>927</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>339</v>
       </c>
       <c r="AL23" t="s">
         <v>339</v>
       </c>
       <c r="AM23" t="s">
+        <v>339</v>
+      </c>
+      <c r="AN23" t="s">
         <v>928</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AO23" t="s">
         <v>929</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>930</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>518</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>931</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>118</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AT23" t="s">
         <v>932</v>
       </c>
-      <c r="AT23" t="s">
+      <c r="AU23" t="s">
         <v>933</v>
       </c>
-      <c r="AU23" t="s">
+      <c r="AV23" t="s">
         <v>934</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>119</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>647</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>208</v>
       </c>
-      <c r="AY23" t="s">
+      <c r="AZ23" t="s">
         <v>935</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="BA23" t="s">
         <v>936</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>937</v>
       </c>
-      <c r="BB23" t="s">
+      <c r="BC23" t="s">
         <v>442</v>
       </c>
-      <c r="BC23" t="s">
+      <c r="BD23" t="s">
         <v>938</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BE23" t="s">
         <v>326</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>939</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
         <v>940</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BH23" t="s">
         <v>941</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>213</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>713</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BK23" t="s">
         <v>192</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BL23" t="s">
         <v>942</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BM23" t="s">
         <v>943</v>
       </c>
-      <c r="BM23" t="s">
+      <c r="BN23" t="s">
         <v>944</v>
       </c>
-      <c r="BN23" t="s">
+      <c r="BO23" t="s">
         <v>213</v>
       </c>
-      <c r="BO23" t="s">
+      <c r="BP23" t="s">
         <v>945</v>
       </c>
-      <c r="BP23" t="s">
+      <c r="BQ23" t="s">
         <v>213</v>
       </c>
-      <c r="BQ23">
+      <c r="BR23">
         <v>0.214718034975173</v>
       </c>
-      <c r="BR23">
+      <c r="BS23">
         <v>0.44823018226292399</v>
       </c>
-      <c r="BS23">
-        <v>1.7953024570010201</v>
-      </c>
       <c r="BT23">
-        <v>1.06712222423887</v>
+        <v>6.0212956294385496</v>
       </c>
       <c r="BU23">
+        <v>2.9070017519393501</v>
+      </c>
+      <c r="BV23">
         <v>-0.53540111260789902</v>
       </c>
-      <c r="BV23">
+      <c r="BW23">
         <v>0.31007950480854701</v>
       </c>
+      <c r="BX23">
+        <v>3.5250737019248</v>
+      </c>
+      <c r="BY23">
+        <v>3.9637943236019102</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>946</v>
       </c>
@@ -9093,187 +9300,196 @@
         <v>59</v>
       </c>
       <c r="O24">
+        <v>19</v>
+      </c>
+      <c r="P24">
         <v>107</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>12.5</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>947</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>80</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>138</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>948</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>949</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>950</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>951</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>952</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>953</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>954</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>513</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>955</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>956</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>957</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>958</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>959</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>960</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>961</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>962</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>125</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>106</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>235</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>963</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>964</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>965</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>542</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>94</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>207</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>966</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
         <v>967</v>
       </c>
-      <c r="AU24" t="s">
+      <c r="AV24" t="s">
         <v>968</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>969</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>970</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>971</v>
       </c>
-      <c r="AY24" t="s">
+      <c r="AZ24" t="s">
         <v>972</v>
       </c>
-      <c r="AZ24" t="s">
+      <c r="BA24" t="s">
         <v>973</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>974</v>
       </c>
-      <c r="BB24" t="s">
+      <c r="BC24" t="s">
         <v>369</v>
       </c>
-      <c r="BC24" t="s">
+      <c r="BD24" t="s">
         <v>938</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BE24" t="s">
         <v>107</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>975</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BG24" t="s">
         <v>976</v>
       </c>
-      <c r="BG24" t="s">
+      <c r="BH24" t="s">
         <v>977</v>
       </c>
-      <c r="BH24" t="s">
+      <c r="BI24" t="s">
         <v>795</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>497</v>
       </c>
-      <c r="BJ24" t="s">
+      <c r="BK24" t="s">
         <v>469</v>
       </c>
-      <c r="BK24" t="s">
+      <c r="BL24" t="s">
         <v>978</v>
       </c>
-      <c r="BL24" t="s">
+      <c r="BM24" t="s">
         <v>979</v>
       </c>
-      <c r="BM24" t="s">
+      <c r="BN24" t="s">
         <v>980</v>
       </c>
-      <c r="BN24" t="s">
+      <c r="BO24" t="s">
         <v>981</v>
       </c>
-      <c r="BO24" t="s">
+      <c r="BP24" t="s">
         <v>73</v>
       </c>
-      <c r="BP24" t="s">
+      <c r="BQ24" t="s">
         <v>330</v>
       </c>
-      <c r="BQ24">
+      <c r="BR24">
         <v>4.2428203848660098E-2</v>
       </c>
-      <c r="BR24">
+      <c r="BS24">
         <v>6.3980076271133099E-2</v>
       </c>
-      <c r="BS24">
-        <v>1.83228156649898</v>
-      </c>
       <c r="BT24">
-        <v>1.7934711077149701</v>
+        <v>6.2481259232209796</v>
       </c>
       <c r="BU24">
+        <v>6.0102786250571496</v>
+      </c>
+      <c r="BV24">
         <v>3.7947630266227002E-2</v>
       </c>
-      <c r="BV24">
+      <c r="BW24">
         <v>-0.77441235839064204</v>
       </c>
+      <c r="BX24">
+        <v>6.4897836662650201</v>
+      </c>
+      <c r="BY24">
+        <v>2.7705857205934801</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>982</v>
       </c>
@@ -9317,187 +9533,196 @@
         <v>65</v>
       </c>
       <c r="O25">
+        <v>18</v>
+      </c>
+      <c r="P25">
         <v>107</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>983</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>984</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>985</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>986</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>354</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>355</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>674</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>334</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>987</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>988</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>551</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>552</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>989</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>990</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>969</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>991</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>992</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>993</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>994</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>639</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>371</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>385</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>995</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>996</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>997</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>343</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>330</v>
       </c>
       <c r="AR25" t="s">
         <v>330</v>
       </c>
       <c r="AS25" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT25" t="s">
         <v>998</v>
       </c>
-      <c r="AT25" t="s">
+      <c r="AU25" t="s">
         <v>999</v>
       </c>
-      <c r="AU25" t="s">
+      <c r="AV25" t="s">
         <v>1000</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>208</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>1001</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>160</v>
       </c>
-      <c r="AY25" t="s">
+      <c r="AZ25" t="s">
         <v>1002</v>
       </c>
-      <c r="AZ25" t="s">
+      <c r="BA25" t="s">
         <v>1003</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>1004</v>
       </c>
-      <c r="BB25" t="s">
+      <c r="BC25" t="s">
         <v>369</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BD25" t="s">
         <v>538</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BE25" t="s">
         <v>460</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BF25" t="s">
         <v>1005</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BG25" t="s">
         <v>1006</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BH25" t="s">
         <v>1007</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>389</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>330</v>
       </c>
-      <c r="BJ25" t="s">
+      <c r="BK25" t="s">
         <v>256</v>
       </c>
-      <c r="BK25" t="s">
+      <c r="BL25" t="s">
         <v>1008</v>
       </c>
-      <c r="BL25" t="s">
+      <c r="BM25" t="s">
         <v>1009</v>
       </c>
-      <c r="BM25" t="s">
+      <c r="BN25" t="s">
         <v>1010</v>
       </c>
-      <c r="BN25" t="s">
+      <c r="BO25" t="s">
         <v>437</v>
       </c>
-      <c r="BO25" t="s">
+      <c r="BP25" t="s">
         <v>170</v>
       </c>
-      <c r="BP25" t="s">
+      <c r="BQ25" t="s">
         <v>95</v>
       </c>
-      <c r="BQ25">
+      <c r="BR25">
         <v>0.20403438305475999</v>
       </c>
-      <c r="BR25">
+      <c r="BS25">
         <v>0.23610185335377301</v>
       </c>
-      <c r="BS25">
-        <v>2.0239735182112102</v>
-      </c>
       <c r="BT25">
-        <v>2.3314785751660398</v>
+        <v>7.5683381946979704</v>
       </c>
       <c r="BU25">
+        <v>10.293149482429699</v>
+      </c>
+      <c r="BV25">
         <v>-0.20121067857813299</v>
       </c>
-      <c r="BV25">
+      <c r="BW25">
         <v>-0.68347323761426704</v>
       </c>
+      <c r="BX25">
+        <v>6.1889338824978397</v>
+      </c>
+      <c r="BY25">
+        <v>5.1966040116148804</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1011</v>
       </c>
@@ -9541,187 +9766,196 @@
         <v>62</v>
       </c>
       <c r="O26">
+        <v>28</v>
+      </c>
+      <c r="P26">
         <v>110</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>13</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>1012</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>1013</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>1014</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>1015</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>804</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>805</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>1016</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>1017</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>1018</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>1019</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>1020</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>1021</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>1022</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>1023</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>1024</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>1025</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>1026</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>1027</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>1028</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>201</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>1029</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>186</v>
       </c>
-      <c r="AM26" t="s">
+      <c r="AN26" t="s">
         <v>1030</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>1031</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>1032</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>206</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>528</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>207</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AT26" t="s">
         <v>1033</v>
       </c>
-      <c r="AT26" t="s">
+      <c r="AU26" t="s">
         <v>1034</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AV26" t="s">
         <v>1035</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>1036</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>1037</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>1038</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
         <v>1039</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>1040</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>1041</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>1042</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>640</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>1043</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>1044</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>1045</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BH26" t="s">
         <v>1046</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>375</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>240</v>
       </c>
-      <c r="BJ26" t="s">
+      <c r="BK26" t="s">
         <v>330</v>
       </c>
-      <c r="BK26" t="s">
+      <c r="BL26" t="s">
         <v>1047</v>
       </c>
-      <c r="BL26" t="s">
+      <c r="BM26" t="s">
         <v>1048</v>
       </c>
-      <c r="BM26" t="s">
+      <c r="BN26" t="s">
         <v>1049</v>
       </c>
-      <c r="BN26" t="s">
+      <c r="BO26" t="s">
         <v>208</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BP26" t="s">
         <v>1050</v>
       </c>
-      <c r="BP26" t="s">
+      <c r="BQ26" t="s">
         <v>713</v>
       </c>
-      <c r="BQ26">
+      <c r="BR26">
         <v>0.140533382413114</v>
       </c>
-      <c r="BR26">
+      <c r="BS26">
         <v>0.221742667078277</v>
       </c>
-      <c r="BS26">
-        <v>1.84442343638814</v>
-      </c>
       <c r="BT26">
-        <v>2.3879442920877598</v>
+        <v>6.3244522899397904</v>
       </c>
       <c r="BU26">
+        <v>10.8910820312579</v>
+      </c>
+      <c r="BV26">
         <v>-6.2232260737934003E-2</v>
       </c>
-      <c r="BV26">
+      <c r="BW26">
         <v>-0.32530782700728</v>
       </c>
+      <c r="BX26">
+        <v>5.9428640213516202</v>
+      </c>
+      <c r="BY26">
+        <v>7.8666827281903497</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1051</v>
       </c>
@@ -9765,187 +9999,196 @@
         <v>76</v>
       </c>
       <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
         <v>122</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>13</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>1052</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>1053</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>1054</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>1055</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>1056</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>1057</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>1058</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>1059</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>589</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>556</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>625</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>1060</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>1061</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>1062</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>1063</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>1064</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>1065</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>1066</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>523</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>1067</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>117</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
         <v>1068</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AO27" t="s">
         <v>1069</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AP27" t="s">
         <v>1070</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>95</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>144</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AS27" t="s">
         <v>207</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>1071</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>1072</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>1073</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW27" t="s">
         <v>1074</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>1075</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY27" t="s">
         <v>330</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>1076</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>1077</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>1078</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>369</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BD27" t="s">
         <v>339</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BE27" t="s">
         <v>113</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>1079</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BG27" t="s">
         <v>1080</v>
       </c>
-      <c r="BG27" t="s">
+      <c r="BH27" t="s">
         <v>1081</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BI27" t="s">
         <v>375</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" t="s">
         <v>191</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BK27" t="s">
         <v>144</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BL27" t="s">
         <v>1082</v>
       </c>
-      <c r="BL27" t="s">
+      <c r="BM27" t="s">
         <v>1083</v>
       </c>
-      <c r="BM27" t="s">
+      <c r="BN27" t="s">
         <v>1084</v>
       </c>
-      <c r="BN27" t="s">
+      <c r="BO27" t="s">
         <v>635</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BP27" t="s">
         <v>899</v>
       </c>
-      <c r="BP27" t="s">
+      <c r="BQ27" t="s">
         <v>843</v>
       </c>
-      <c r="BQ27">
+      <c r="BR27">
         <v>0.23282562272131299</v>
       </c>
-      <c r="BR27">
+      <c r="BS27">
         <v>0.65056803878946301</v>
       </c>
-      <c r="BS27">
-        <v>1.7782001530629601</v>
-      </c>
       <c r="BT27">
-        <v>0.51214732272857799</v>
+        <v>5.9191931836530198</v>
       </c>
       <c r="BU27">
+        <v>1.6688709546526601</v>
+      </c>
+      <c r="BV27">
         <v>-0.17559169365990401</v>
       </c>
-      <c r="BV27">
+      <c r="BW27">
         <v>-0.72686406206242404</v>
       </c>
+      <c r="BX27">
+        <v>4.9659690734229303</v>
+      </c>
+      <c r="BY27">
+        <v>0.80676993400308095</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1085</v>
       </c>
@@ -9989,97 +10232,97 @@
         <v>68</v>
       </c>
       <c r="O28">
+        <v>28</v>
+      </c>
+      <c r="P28">
         <v>110</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>13</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>1086</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>1087</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>557</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>558</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>442</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>213</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>1088</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>1089</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>1090</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>589</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>1091</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>1092</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>442</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>213</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>1093</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>1094</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>1095</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>1096</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>1097</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>201</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>1098</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>653</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>1099</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AO28" t="s">
         <v>1100</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AP28" t="s">
         <v>1101</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>389</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>240</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>330</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>442</v>
       </c>
       <c r="AT28" t="s">
         <v>442</v>
@@ -10088,52 +10331,52 @@
         <v>442</v>
       </c>
       <c r="AV28" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW28" t="s">
         <v>95</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>213</v>
       </c>
       <c r="AX28" t="s">
         <v>213</v>
       </c>
       <c r="AY28" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ28" t="s">
         <v>1102</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>1103</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>1104</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>369</v>
       </c>
-      <c r="BC28" t="s">
+      <c r="BD28" t="s">
         <v>1105</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BE28" t="s">
         <v>339</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>1106</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BG28" t="s">
         <v>1107</v>
       </c>
-      <c r="BG28" t="s">
+      <c r="BH28" t="s">
         <v>1108</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BI28" t="s">
         <v>343</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" t="s">
         <v>95</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BK28" t="s">
         <v>330</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>442</v>
       </c>
       <c r="BL28" t="s">
         <v>442</v>
@@ -10142,34 +10385,43 @@
         <v>442</v>
       </c>
       <c r="BN28" t="s">
+        <v>442</v>
+      </c>
+      <c r="BO28" t="s">
         <v>727</v>
       </c>
-      <c r="BO28" t="s">
+      <c r="BP28" t="s">
         <v>1109</v>
       </c>
-      <c r="BP28" t="s">
+      <c r="BQ28" t="s">
         <v>126</v>
       </c>
-      <c r="BQ28">
+      <c r="BR28">
         <v>0.16351552882031301</v>
       </c>
-      <c r="BR28">
+      <c r="BS28">
         <v>0.214621949934555</v>
       </c>
-      <c r="BS28">
-        <v>2.8685449948128801</v>
-      </c>
       <c r="BT28">
-        <v>1.62059239386302</v>
+        <v>17.611374906957298</v>
       </c>
       <c r="BU28">
+        <v>5.0560846230735104</v>
+      </c>
+      <c r="BV28">
         <v>0.10024782188338099</v>
       </c>
-      <c r="BV28">
+      <c r="BW28">
         <v>0.35687285947530001</v>
       </c>
+      <c r="BX28">
+        <v>19.468403473128301</v>
+      </c>
+      <c r="BY28">
+        <v>7.2244077140085503</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1110</v>
       </c>
@@ -10213,184 +10465,193 @@
         <v>75</v>
       </c>
       <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29">
         <v>104</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>13</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>1111</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>882</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>1112</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>1113</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>1114</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>1115</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>1116</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>1117</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>1118</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>1119</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>1120</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>1121</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>1122</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>1001</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>1123</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>1124</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>1125</v>
       </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
         <v>1126</v>
       </c>
-      <c r="AI29" t="s">
+      <c r="AJ29" t="s">
         <v>1127</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>927</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>371</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>1128</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>1129</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AO29" t="s">
         <v>1130</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AP29" t="s">
         <v>1131</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>375</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>241</v>
       </c>
       <c r="AR29" t="s">
         <v>241</v>
       </c>
       <c r="AS29" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT29" t="s">
         <v>1132</v>
       </c>
-      <c r="AT29" t="s">
+      <c r="AU29" t="s">
         <v>1133</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>1134</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW29" t="s">
         <v>1135</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>899</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY29" t="s">
         <v>469</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>1136</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>1137</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>1138</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>249</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BD29" t="s">
         <v>1139</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BE29" t="s">
         <v>653</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BF29" t="s">
         <v>1140</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BG29" t="s">
         <v>1141</v>
       </c>
-      <c r="BG29" t="s">
+      <c r="BH29" t="s">
         <v>1142</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BI29" t="s">
         <v>254</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>344</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>376</v>
       </c>
-      <c r="BK29" t="s">
+      <c r="BL29" t="s">
         <v>1143</v>
       </c>
-      <c r="BL29" t="s">
+      <c r="BM29" t="s">
         <v>1144</v>
       </c>
-      <c r="BM29" t="s">
+      <c r="BN29" t="s">
         <v>1145</v>
       </c>
-      <c r="BN29" t="s">
+      <c r="BO29" t="s">
         <v>661</v>
       </c>
-      <c r="BO29" t="s">
+      <c r="BP29" t="s">
         <v>1050</v>
       </c>
-      <c r="BP29" t="s">
+      <c r="BQ29" t="s">
         <v>647</v>
       </c>
-      <c r="BQ29">
+      <c r="BR29">
         <v>7.0548161359247699E-2</v>
       </c>
-      <c r="BR29">
+      <c r="BS29">
         <v>0.22567393990067999</v>
       </c>
-      <c r="BS29">
-        <v>2.1874361525966601</v>
-      </c>
       <c r="BT29">
-        <v>1.8522920520388799</v>
+        <v>8.9123339336534695</v>
       </c>
       <c r="BU29">
+        <v>6.37441327834029</v>
+      </c>
+      <c r="BV29">
         <v>0.45147420617223999</v>
       </c>
-      <c r="BV29">
+      <c r="BW29">
         <v>0.13403400562437701</v>
+      </c>
+      <c r="BX29">
+        <v>13.997942559346599</v>
+      </c>
+      <c r="BY29">
+        <v>7.28870622469364</v>
       </c>
     </row>
   </sheetData>
